--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2142590.171451306</v>
+        <v>2139788.027568775</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="G2" t="n">
         <v>13.91167781799599</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.640847354815062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.67647943109962</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -735,34 +735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>13.91167781799599</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -783,11 +783,11 @@
         <v>13.91167781799599</v>
       </c>
       <c r="R3" t="n">
+        <v>13.91167781799599</v>
+      </c>
+      <c r="S3" t="n">
         <v>12.25340582209087</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.91167781799599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.24983943941755</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>0.03819881178234538</v>
       </c>
     </row>
     <row r="6">
@@ -978,25 +978,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.84193026251984</v>
       </c>
       <c r="E6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G6" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="H6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>43.85944218949135</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>31.01751192697151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1136,25 +1136,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>33.05042947603808</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="G8" t="n">
-        <v>13.46317442462584</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>24.91528667358025</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>37.62649598328101</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,31 +1209,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>92.66494928910245</v>
       </c>
       <c r="E9" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>67.27654854321875</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.66494928910245</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516765</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.34273879062262</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>92.66494928910245</v>
+        <v>47.77198705867373</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.81027221760945</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>289.6137626191889</v>
       </c>
       <c r="I11" t="n">
-        <v>22.77734445219949</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.07575736573747</v>
       </c>
       <c r="T11" t="n">
         <v>201.7833437278056</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>366.7497979601247</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.07705110139773</v>
       </c>
       <c r="I12" t="n">
-        <v>9.834193755438207</v>
+        <v>9.834193755438193</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>141.614513805336</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8070715551559</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.77441116974946</v>
+        <v>89.77441116974944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9570411375937</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.6143469959873</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1999071126743</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>28.91463346040384</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1616,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4340896941583</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>289.6137626191889</v>
+        <v>26.1705266412065</v>
       </c>
       <c r="I14" t="n">
-        <v>22.77734445219949</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.07575736573749</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>179.2018537504471</v>
+        <v>201.7833437278056</v>
       </c>
       <c r="U14" t="n">
         <v>250.9561610821584</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>65.11841421046697</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>30.24597424226704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.8102467653466</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.77441116974946</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.09695505775035</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>185.9570411375937</v>
@@ -1819,7 +1819,7 @@
         <v>218.6143469959873</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1999071126743</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.1044398152792</v>
+        <v>353.1044398152791</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>335.6434899228061</v>
       </c>
       <c r="D17" t="n">
-        <v>325.0536397724816</v>
+        <v>325.0536397724815</v>
       </c>
       <c r="E17" t="n">
-        <v>352.3009682240605</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F17" t="n">
-        <v>377.2466438935101</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G17" t="n">
-        <v>380.8046878459569</v>
+        <v>380.8046878459568</v>
       </c>
       <c r="H17" t="n">
-        <v>259.9843607709876</v>
+        <v>259.9843607709875</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.94838827728402</v>
+        <v>68.44635551753605</v>
       </c>
       <c r="T17" t="n">
         <v>172.1539418796042</v>
       </c>
       <c r="U17" t="n">
-        <v>221.326759233957</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>298.1228566219336</v>
+        <v>162.3081586928327</v>
       </c>
       <c r="W17" t="n">
-        <v>319.6115668692117</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X17" t="n">
-        <v>340.1016988302677</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y17" t="n">
-        <v>356.6085368078523</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H18" t="n">
-        <v>87.07705110139771</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I18" t="n">
-        <v>9.83419375543815</v>
+        <v>9.834193755438207</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>150.2025783337359</v>
       </c>
       <c r="C19" t="n">
-        <v>137.6174192504265</v>
+        <v>137.6174192504264</v>
       </c>
       <c r="D19" t="n">
-        <v>118.986071170011</v>
+        <v>58.12201436200573</v>
       </c>
       <c r="E19" t="n">
-        <v>116.8045607983678</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.7916461747299</v>
+        <v>115.7916461747298</v>
       </c>
       <c r="G19" t="n">
-        <v>136.1776697069545</v>
+        <v>136.1776697069544</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>113.1808449171451</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>60.14500932154802</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.46755320954894</v>
+        <v>49.46755320954891</v>
       </c>
       <c r="S19" t="n">
-        <v>151.9848759217118</v>
+        <v>156.3276392893922</v>
       </c>
       <c r="T19" t="n">
-        <v>188.984945147786</v>
+        <v>188.9849451477859</v>
       </c>
       <c r="U19" t="n">
-        <v>256.570505264473</v>
+        <v>256.5705052644729</v>
       </c>
       <c r="V19" t="n">
         <v>222.5082414756266</v>
       </c>
       <c r="W19" t="n">
-        <v>256.8935964883897</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X19" t="n">
-        <v>196.0802535408358</v>
+        <v>196.0802535408357</v>
       </c>
       <c r="Y19" t="n">
         <v>188.9552515038934</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.1044398152792</v>
+        <v>353.1044398152791</v>
       </c>
       <c r="C20" t="n">
-        <v>335.6434899228062</v>
+        <v>335.6434899228061</v>
       </c>
       <c r="D20" t="n">
-        <v>325.0536397724816</v>
+        <v>325.0536397724815</v>
       </c>
       <c r="E20" t="n">
-        <v>352.3009682240604</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F20" t="n">
-        <v>377.2466438935101</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G20" t="n">
-        <v>244.989989916858</v>
+        <v>23.66323068289792</v>
       </c>
       <c r="H20" t="n">
-        <v>259.9843607709876</v>
+        <v>259.9843607709875</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.44635551753603</v>
+        <v>68.44635551753605</v>
       </c>
       <c r="T20" t="n">
         <v>172.1539418796042</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>221.3267592339569</v>
       </c>
       <c r="V20" t="n">
         <v>298.1228566219335</v>
@@ -2144,10 +2144,10 @@
         <v>319.6115668692116</v>
       </c>
       <c r="X20" t="n">
-        <v>340.1016988302677</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y20" t="n">
-        <v>356.6085368078522</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.738560925789</v>
       </c>
       <c r="H21" t="n">
-        <v>87.07705110139771</v>
+        <v>87.07705110139773</v>
       </c>
       <c r="I21" t="n">
-        <v>9.834193755438164</v>
+        <v>9.834193755438207</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.0015139369133</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C22" t="n">
         <v>137.6174192504264</v>
@@ -2245,7 +2245,7 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E22" t="n">
-        <v>116.8045607983678</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F22" t="n">
         <v>115.7916461747298</v>
@@ -2254,7 +2254,7 @@
         <v>136.1776697069544</v>
       </c>
       <c r="H22" t="n">
-        <v>113.1808449171452</v>
+        <v>113.1808449171451</v>
       </c>
       <c r="I22" t="n">
         <v>60.14500932154802</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>49.46755320954891</v>
       </c>
       <c r="S22" t="n">
         <v>156.3276392893922</v>
@@ -2293,7 +2293,7 @@
         <v>188.9849451477859</v>
       </c>
       <c r="U22" t="n">
-        <v>256.570505264473</v>
+        <v>256.5705052644729</v>
       </c>
       <c r="V22" t="n">
         <v>222.5082414756266</v>
@@ -2302,7 +2302,7 @@
         <v>256.8935964883896</v>
       </c>
       <c r="X22" t="n">
-        <v>196.0802535408357</v>
+        <v>18.41163593446404</v>
       </c>
       <c r="Y22" t="n">
         <v>188.9552515038934</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.1044398152792</v>
+        <v>353.1044398152791</v>
       </c>
       <c r="C23" t="n">
-        <v>335.6434899228062</v>
+        <v>335.6434899228061</v>
       </c>
       <c r="D23" t="n">
-        <v>325.0536397724816</v>
+        <v>325.0536397724815</v>
       </c>
       <c r="E23" t="n">
-        <v>352.3009682240604</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F23" t="n">
-        <v>377.2466438935101</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G23" t="n">
         <v>380.5123013982243</v>
       </c>
       <c r="H23" t="n">
-        <v>256.9899580631466</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>61.7835993398305</v>
+        <v>61.78359933983047</v>
       </c>
       <c r="T23" t="n">
-        <v>170.874020204655</v>
+        <v>170.8740202046549</v>
       </c>
       <c r="U23" t="n">
-        <v>221.3033683181384</v>
+        <v>221.3033683181383</v>
       </c>
       <c r="V23" t="n">
-        <v>298.1228566219335</v>
+        <v>298.1228566219332</v>
       </c>
       <c r="W23" t="n">
         <v>319.6115668692116</v>
       </c>
       <c r="X23" t="n">
-        <v>340.1016988302677</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y23" t="n">
-        <v>356.6085368078522</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="24">
@@ -2482,10 +2482,10 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E25" t="n">
-        <v>116.8045607983678</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F25" t="n">
-        <v>115.7916461747298</v>
+        <v>79.54919154982909</v>
       </c>
       <c r="G25" t="n">
         <v>136.0465152122646</v>
@@ -2494,7 +2494,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I25" t="n">
-        <v>19.95838134724544</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.57037020285718</v>
+        <v>43.57037020285715</v>
       </c>
       <c r="S25" t="n">
-        <v>154.0419741410243</v>
+        <v>154.0419741410242</v>
       </c>
       <c r="T25" t="n">
         <v>188.4245577613837</v>
       </c>
       <c r="U25" t="n">
-        <v>256.5633513829445</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V25" t="n">
         <v>222.5082414756266</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>353.1044398152792</v>
+        <v>353.1044398152791</v>
       </c>
       <c r="C26" t="n">
-        <v>335.6434899228062</v>
+        <v>335.6434899228061</v>
       </c>
       <c r="D26" t="n">
-        <v>325.0536397724816</v>
+        <v>325.0536397724815</v>
       </c>
       <c r="E26" t="n">
-        <v>352.3009682240604</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F26" t="n">
-        <v>377.2466438935101</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G26" t="n">
         <v>380.5123013982243</v>
       </c>
       <c r="H26" t="n">
-        <v>256.9899580631466</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>170.874020204655</v>
       </c>
       <c r="U26" t="n">
-        <v>221.3033683181362</v>
+        <v>221.3033683181384</v>
       </c>
       <c r="V26" t="n">
         <v>298.1228566219335</v>
@@ -2618,10 +2618,10 @@
         <v>319.6115668692116</v>
       </c>
       <c r="X26" t="n">
-        <v>340.1016988302677</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y26" t="n">
-        <v>356.6085368078522</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="27">
@@ -2764,10 +2764,10 @@
         <v>154.0419741410243</v>
       </c>
       <c r="T28" t="n">
-        <v>152.1821031364826</v>
+        <v>188.4245577613837</v>
       </c>
       <c r="U28" t="n">
-        <v>256.5633513829445</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V28" t="n">
         <v>222.5082414756266</v>
@@ -2776,7 +2776,7 @@
         <v>256.8935964883896</v>
       </c>
       <c r="X28" t="n">
-        <v>196.0802535408357</v>
+        <v>159.8377989159352</v>
       </c>
       <c r="Y28" t="n">
         <v>188.9552515038934</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.32791557795656</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S31" t="n">
         <v>154.0419741410243</v>
@@ -3013,7 +3013,7 @@
         <v>256.8935964883896</v>
       </c>
       <c r="X31" t="n">
-        <v>196.0802535408357</v>
+        <v>159.8377989159343</v>
       </c>
       <c r="Y31" t="n">
         <v>188.9552515038934</v>
@@ -3038,13 +3038,13 @@
         <v>352.3009682240603</v>
       </c>
       <c r="F32" t="n">
-        <v>377.2466438935099</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G32" t="n">
-        <v>380.5123013982242</v>
+        <v>380.5123013982243</v>
       </c>
       <c r="H32" t="n">
-        <v>256.9899580631464</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>61.78359933983043</v>
+        <v>61.7835993398305</v>
       </c>
       <c r="T32" t="n">
-        <v>170.8740202046549</v>
+        <v>170.874020204655</v>
       </c>
       <c r="U32" t="n">
-        <v>221.3033683181383</v>
+        <v>221.3033683181384</v>
       </c>
       <c r="V32" t="n">
-        <v>298.1228566219334</v>
+        <v>298.1228566219335</v>
       </c>
       <c r="W32" t="n">
-        <v>319.6115668692115</v>
+        <v>319.6115668692116</v>
       </c>
       <c r="X32" t="n">
-        <v>340.1016988302675</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y32" t="n">
         <v>356.6085368078521</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150.2025783337358</v>
+        <v>150.2025783337359</v>
       </c>
       <c r="C34" t="n">
         <v>137.6174192504264</v>
@@ -3193,19 +3193,19 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E34" t="n">
-        <v>116.8045607983677</v>
+        <v>116.8045607983678</v>
       </c>
       <c r="F34" t="n">
         <v>115.7916461747298</v>
       </c>
       <c r="G34" t="n">
-        <v>136.0465152122645</v>
+        <v>136.0465152122646</v>
       </c>
       <c r="H34" t="n">
-        <v>112.0147622279933</v>
+        <v>112.0147622279934</v>
       </c>
       <c r="I34" t="n">
-        <v>56.20083597214717</v>
+        <v>56.20083597214725</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.327915577957505</v>
+        <v>7.327915577955282</v>
       </c>
       <c r="S34" t="n">
-        <v>154.0419741410242</v>
+        <v>154.0419741410243</v>
       </c>
       <c r="T34" t="n">
         <v>188.4245577613837</v>
       </c>
       <c r="U34" t="n">
-        <v>256.5633513829443</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V34" t="n">
-        <v>222.5082414756265</v>
+        <v>222.5082414756266</v>
       </c>
       <c r="W34" t="n">
-        <v>256.8935964883895</v>
+        <v>256.8935964883896</v>
       </c>
       <c r="X34" t="n">
         <v>196.0802535408357</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.9552515038933</v>
+        <v>188.9552515038934</v>
       </c>
     </row>
     <row r="35">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.327915577957082</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S37" t="n">
         <v>154.0419741410243</v>
@@ -3490,7 +3490,7 @@
         <v>196.0802535408357</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.9552515038934</v>
+        <v>152.7127968789921</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3509,13 @@
         <v>325.0536397724815</v>
       </c>
       <c r="E38" t="n">
-        <v>352.3009682240609</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F38" t="n">
         <v>377.24664389351</v>
       </c>
       <c r="G38" t="n">
-        <v>380.5123013982243</v>
+        <v>380.512301398225</v>
       </c>
       <c r="H38" t="n">
         <v>256.9899580631465</v>
@@ -3670,7 +3670,7 @@
         <v>116.8045607983677</v>
       </c>
       <c r="F40" t="n">
-        <v>115.7916461747298</v>
+        <v>79.54919154982919</v>
       </c>
       <c r="G40" t="n">
         <v>136.0465152122646</v>
@@ -3679,7 +3679,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I40" t="n">
-        <v>19.95838134724617</v>
+        <v>56.20083597214722</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>61.78359933983047</v>
+        <v>61.7835993398305</v>
       </c>
       <c r="T41" t="n">
-        <v>170.8740202046549</v>
+        <v>170.874020204655</v>
       </c>
       <c r="U41" t="n">
-        <v>221.3033683181383</v>
+        <v>221.3033683181384</v>
       </c>
       <c r="V41" t="n">
         <v>298.1228566219335</v>
@@ -3806,7 +3806,7 @@
         <v>340.1016988302676</v>
       </c>
       <c r="Y41" t="n">
-        <v>356.6085368078504</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.2025783337359</v>
+        <v>113.9601237088339</v>
       </c>
       <c r="C43" t="n">
         <v>137.6174192504264</v>
@@ -3904,7 +3904,7 @@
         <v>118.9860711700109</v>
       </c>
       <c r="E43" t="n">
-        <v>116.8045607983677</v>
+        <v>116.8045607983678</v>
       </c>
       <c r="F43" t="n">
         <v>115.7916461747298</v>
@@ -3916,7 +3916,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I43" t="n">
-        <v>56.20083597214722</v>
+        <v>56.20083597214725</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.327915577956407</v>
+        <v>43.57037020285718</v>
       </c>
       <c r="S43" t="n">
-        <v>154.0419741410242</v>
+        <v>154.0419741410243</v>
       </c>
       <c r="T43" t="n">
         <v>188.4245577613837</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>353.1044398152792</v>
+        <v>353.1044398152791</v>
       </c>
       <c r="C44" t="n">
-        <v>335.6434899228062</v>
+        <v>335.6434899228061</v>
       </c>
       <c r="D44" t="n">
-        <v>325.0536397724816</v>
+        <v>325.0536397724815</v>
       </c>
       <c r="E44" t="n">
-        <v>352.3009682240604</v>
+        <v>352.3009682240603</v>
       </c>
       <c r="F44" t="n">
-        <v>377.2466438935101</v>
+        <v>377.24664389351</v>
       </c>
       <c r="G44" t="n">
         <v>380.5123013982243</v>
       </c>
       <c r="H44" t="n">
-        <v>256.9899580631466</v>
+        <v>256.9899580631465</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>319.6115668692116</v>
       </c>
       <c r="X44" t="n">
-        <v>340.1016988302677</v>
+        <v>340.1016988302676</v>
       </c>
       <c r="Y44" t="n">
-        <v>356.6085368078522</v>
+        <v>356.6085368078521</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>137.6174192504264</v>
       </c>
       <c r="D46" t="n">
-        <v>118.9860711700109</v>
+        <v>82.74361654511024</v>
       </c>
       <c r="E46" t="n">
         <v>116.8045607983678</v>
@@ -4153,7 +4153,7 @@
         <v>112.0147622279934</v>
       </c>
       <c r="I46" t="n">
-        <v>19.95838134724583</v>
+        <v>56.20083597214725</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>188.4245577613837</v>
       </c>
       <c r="U46" t="n">
-        <v>256.5633513829445</v>
+        <v>256.5633513829444</v>
       </c>
       <c r="V46" t="n">
         <v>222.5082414756266</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="C2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="D2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="E2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="F2" t="n">
-        <v>15.16513404159725</v>
+        <v>18.84275763231953</v>
       </c>
       <c r="G2" t="n">
-        <v>1.112934225439679</v>
+        <v>4.790557816161964</v>
       </c>
       <c r="H2" t="n">
         <v>1.112934225439679</v>
@@ -4349,31 +4349,31 @@
         <v>32.8949574484771</v>
       </c>
       <c r="Q2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="R2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="S2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="T2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="U2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="V2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="W2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="X2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.11063479080072</v>
+        <v>32.8949574484771</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="C3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="D3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="E3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="F3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="G3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="H3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="I3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="J3" t="n">
-        <v>1.112934225439679</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="K3" t="n">
         <v>1.112934225439679</v>
@@ -4416,10 +4416,10 @@
         <v>14.88549526525571</v>
       </c>
       <c r="M3" t="n">
-        <v>20.03218192998119</v>
+        <v>28.65805630507175</v>
       </c>
       <c r="N3" t="n">
-        <v>33.80474296979722</v>
+        <v>42.43061734488778</v>
       </c>
       <c r="O3" t="n">
         <v>47.57730400961326</v>
@@ -4431,25 +4431,25 @@
         <v>41.5945114558264</v>
       </c>
       <c r="R3" t="n">
-        <v>29.21733385775482</v>
+        <v>27.54231163966883</v>
       </c>
       <c r="S3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="T3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="U3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="V3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="W3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="X3" t="n">
-        <v>29.21733385775482</v>
+        <v>15.16513404159725</v>
       </c>
       <c r="Y3" t="n">
         <v>15.16513404159725</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="C5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="D5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="E5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F5" t="n">
-        <v>47.37467136741799</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G5" t="n">
-        <v>33.528892925218</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H5" t="n">
-        <v>33.528892925218</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I5" t="n">
-        <v>33.528892925218</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J5" t="n">
         <v>3.98360056216997</v>
@@ -4595,22 +4595,22 @@
         <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>54.32017211662146</v>
+        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="C6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="D6" t="n">
-        <v>199.1800281084985</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="E6" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="F6" t="n">
-        <v>148.882041212413</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="G6" t="n">
-        <v>98.58405431632752</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H6" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I6" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J6" t="n">
         <v>3.98360056216997</v>
@@ -4650,13 +4650,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L6" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
         <v>170.4401317516709</v>
@@ -4665,31 +4665,31 @@
         <v>199.1800281084985</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="R6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="S6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="T6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="U6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="V6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="W6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="X6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.1800281084985</v>
+        <v>167.8492079802444</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="C8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="D8" t="n">
-        <v>121.5588216556936</v>
+        <v>313.3830288127116</v>
       </c>
       <c r="E8" t="n">
-        <v>121.5588216556936</v>
+        <v>219.7820699348304</v>
       </c>
       <c r="F8" t="n">
-        <v>114.6133209064901</v>
+        <v>126.1811110569491</v>
       </c>
       <c r="G8" t="n">
-        <v>101.0141548210095</v>
+        <v>32.58015217906785</v>
       </c>
       <c r="H8" t="n">
-        <v>101.0141548210095</v>
+        <v>32.58015217906785</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128196</v>
+        <v>32.58015217906785</v>
       </c>
       <c r="J8" t="n">
         <v>7.413195943128196</v>
@@ -4829,25 +4829,25 @@
         <v>346.7673010107299</v>
       </c>
       <c r="S8" t="n">
-        <v>253.1663421328486</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="T8" t="n">
-        <v>159.5653832549673</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="U8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="V8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="W8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="X8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.5588216556936</v>
+        <v>346.7673010107299</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>262.5712233385057</v>
+        <v>228.8043058960298</v>
       </c>
       <c r="C9" t="n">
-        <v>262.5712233385057</v>
+        <v>135.2033470181485</v>
       </c>
       <c r="D9" t="n">
-        <v>262.5712233385057</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="E9" t="n">
-        <v>168.9702644606244</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="F9" t="n">
-        <v>168.9702644606244</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="G9" t="n">
-        <v>101.0141548210095</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="H9" t="n">
-        <v>7.413195943128196</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="I9" t="n">
-        <v>7.413195943128196</v>
+        <v>41.60238814026724</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128196</v>
@@ -4902,31 +4902,31 @@
         <v>370.6597971564098</v>
       </c>
       <c r="Q9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1721822163869</v>
+        <v>370.6597971564098</v>
       </c>
       <c r="Y9" t="n">
-        <v>262.5712233385057</v>
+        <v>322.4052647739111</v>
       </c>
     </row>
     <row r="10">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.532637423865</v>
+        <v>2309.52521878528</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.570120483453</v>
+        <v>1940.562701844868</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.304421876703</v>
+        <v>1582.297003238118</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.516169278459</v>
+        <v>1196.508750639874</v>
       </c>
       <c r="F11" t="n">
-        <v>808.5302644888513</v>
+        <v>785.522845850266</v>
       </c>
       <c r="G11" t="n">
-        <v>393.9503759088934</v>
+        <v>370.9429572703081</v>
       </c>
       <c r="H11" t="n">
-        <v>101.4112217480965</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I11" t="n">
         <v>78.40380310951114</v>
       </c>
       <c r="J11" t="n">
-        <v>308.2565516437612</v>
+        <v>308.2565516437616</v>
       </c>
       <c r="K11" t="n">
-        <v>703.4847567642269</v>
+        <v>703.4847567642272</v>
       </c>
       <c r="L11" t="n">
         <v>1230.702055542641</v>
@@ -5051,7 +5051,7 @@
         <v>1849.002321775775</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.921141108421</v>
+        <v>2481.92114110842</v>
       </c>
       <c r="O11" t="n">
         <v>3066.233173492082</v>
@@ -5060,31 +5060,31 @@
         <v>3530.428973735937</v>
       </c>
       <c r="Q11" t="n">
-        <v>3830.847941213961</v>
+        <v>3830.84794121396</v>
       </c>
       <c r="R11" t="n">
         <v>3920.190155475557</v>
       </c>
       <c r="S11" t="n">
-        <v>3920.190155475557</v>
+        <v>3821.123733894004</v>
       </c>
       <c r="T11" t="n">
-        <v>3716.368596154542</v>
+        <v>3617.302174572988</v>
       </c>
       <c r="U11" t="n">
-        <v>3462.877524354381</v>
+        <v>3363.811102772828</v>
       </c>
       <c r="V11" t="n">
-        <v>3131.814637010811</v>
+        <v>3032.748215429257</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.045981740696</v>
+        <v>2679.979560159143</v>
       </c>
       <c r="X11" t="n">
-        <v>2779.045981740697</v>
+        <v>2309.52521878528</v>
       </c>
       <c r="Y11" t="n">
-        <v>2388.906649764885</v>
+        <v>2309.52521878528</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2939494295474</v>
       </c>
       <c r="H12" t="n">
-        <v>88.33733215540832</v>
+        <v>88.3373321554083</v>
       </c>
       <c r="I12" t="n">
         <v>78.40380310951114</v>
       </c>
       <c r="J12" t="n">
-        <v>196.4846785305512</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="K12" t="n">
-        <v>476.458526995155</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="L12" t="n">
-        <v>899.2404583298517</v>
+        <v>482.6638498393243</v>
       </c>
       <c r="M12" t="n">
-        <v>1411.963899034296</v>
+        <v>995.3872905437684</v>
       </c>
       <c r="N12" t="n">
-        <v>1952.66624847372</v>
+        <v>1536.089639983193</v>
       </c>
       <c r="O12" t="n">
-        <v>1992.611134930883</v>
+        <v>2008.506859743276</v>
       </c>
       <c r="P12" t="n">
-        <v>2352.434536582871</v>
+        <v>2368.330261395265</v>
       </c>
       <c r="Q12" t="n">
-        <v>2543.047755108679</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="R12" t="n">
         <v>2558.943479921073</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>798.6647027530279</v>
+        <v>950.4227803935979</v>
       </c>
       <c r="C13" t="n">
-        <v>629.728519825121</v>
+        <v>781.4865974656911</v>
       </c>
       <c r="D13" t="n">
-        <v>479.6118804127852</v>
+        <v>631.3699580533554</v>
       </c>
       <c r="E13" t="n">
-        <v>336.5669169730519</v>
+        <v>483.4568644709623</v>
       </c>
       <c r="F13" t="n">
         <v>336.5669169730519</v>
@@ -5200,10 +5200,10 @@
         <v>138.8364736705845</v>
       </c>
       <c r="K13" t="n">
-        <v>367.9827522988589</v>
+        <v>367.9827522988592</v>
       </c>
       <c r="L13" t="n">
-        <v>716.7375312435116</v>
+        <v>716.7375312435119</v>
       </c>
       <c r="M13" t="n">
         <v>1094.8396697069</v>
@@ -5215,34 +5215,34 @@
         <v>1799.323864205995</v>
       </c>
       <c r="P13" t="n">
-        <v>2058.122022614515</v>
+        <v>2058.122022614514</v>
       </c>
       <c r="Q13" t="n">
-        <v>2153.865372781344</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="R13" t="n">
-        <v>2153.865372781344</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="S13" t="n">
-        <v>1966.029977692865</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="T13" t="n">
-        <v>1745.207404969646</v>
+        <v>1933.042800058124</v>
       </c>
       <c r="U13" t="n">
-        <v>1745.207404969646</v>
+        <v>1643.951984792796</v>
       </c>
       <c r="V13" t="n">
-        <v>1490.522916763759</v>
+        <v>1389.267496586909</v>
       </c>
       <c r="W13" t="n">
-        <v>1201.105746726798</v>
+        <v>1360.060796121855</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.105746726798</v>
+        <v>1132.071245223838</v>
       </c>
       <c r="Y13" t="n">
-        <v>980.3131675832676</v>
+        <v>1132.071245223838</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1552.584215693846</v>
+        <v>1628.841051439683</v>
       </c>
       <c r="C14" t="n">
-        <v>1552.584215693846</v>
+        <v>1259.878534499271</v>
       </c>
       <c r="D14" t="n">
-        <v>1194.318517087096</v>
+        <v>901.6128358925209</v>
       </c>
       <c r="E14" t="n">
-        <v>808.5302644888513</v>
+        <v>515.8245832942766</v>
       </c>
       <c r="F14" t="n">
-        <v>808.5302644888513</v>
+        <v>104.8386785046692</v>
       </c>
       <c r="G14" t="n">
-        <v>393.9503759088934</v>
+        <v>104.8386785046692</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4112217480965</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I14" t="n">
         <v>78.40380310951114</v>
       </c>
       <c r="J14" t="n">
-        <v>308.2565516437621</v>
+        <v>308.2565516437612</v>
       </c>
       <c r="K14" t="n">
-        <v>703.4847567642282</v>
+        <v>703.4847567642269</v>
       </c>
       <c r="L14" t="n">
-        <v>1230.702055542643</v>
+        <v>1230.702055542641</v>
       </c>
       <c r="M14" t="n">
-        <v>1849.002321775777</v>
+        <v>1849.002321775774</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.921141108422</v>
+        <v>2481.92114110842</v>
       </c>
       <c r="O14" t="n">
-        <v>3066.233173492084</v>
+        <v>3066.233173492082</v>
       </c>
       <c r="P14" t="n">
-        <v>3530.428973735938</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q14" t="n">
-        <v>3830.847941213962</v>
+        <v>3830.847941213961</v>
       </c>
       <c r="R14" t="n">
         <v>3920.190155475557</v>
       </c>
       <c r="S14" t="n">
-        <v>3821.123733894004</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="T14" t="n">
-        <v>3640.111760408704</v>
+        <v>3716.368596154541</v>
       </c>
       <c r="U14" t="n">
-        <v>3386.620688608545</v>
+        <v>3462.877524354381</v>
       </c>
       <c r="V14" t="n">
-        <v>3055.557801264974</v>
+        <v>3131.814637010811</v>
       </c>
       <c r="W14" t="n">
-        <v>2702.78914599486</v>
+        <v>2779.045981740696</v>
       </c>
       <c r="X14" t="n">
-        <v>2329.32338773378</v>
+        <v>2405.580223479617</v>
       </c>
       <c r="Y14" t="n">
-        <v>1939.184055757968</v>
+        <v>2015.440891503805</v>
       </c>
     </row>
     <row r="15">
@@ -5358,25 +5358,25 @@
         <v>196.4846785305512</v>
       </c>
       <c r="K15" t="n">
-        <v>196.4846785305512</v>
+        <v>476.458526995155</v>
       </c>
       <c r="L15" t="n">
-        <v>619.2666098652479</v>
+        <v>899.2404583298517</v>
       </c>
       <c r="M15" t="n">
-        <v>1131.990050569692</v>
+        <v>1411.963899034296</v>
       </c>
       <c r="N15" t="n">
-        <v>1672.692400009116</v>
+        <v>1726.702858509001</v>
       </c>
       <c r="O15" t="n">
-        <v>1992.611134930883</v>
+        <v>2199.120078269084</v>
       </c>
       <c r="P15" t="n">
-        <v>2352.434536582871</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="Q15" t="n">
-        <v>2543.047755108679</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="R15" t="n">
         <v>2558.943479921073</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>490.7792376552628</v>
+        <v>397.4566254497538</v>
       </c>
       <c r="C16" t="n">
-        <v>490.7792376552629</v>
+        <v>228.5204425218469</v>
       </c>
       <c r="D16" t="n">
-        <v>490.7792376552629</v>
+        <v>78.40380310951116</v>
       </c>
       <c r="E16" t="n">
-        <v>490.7792376552629</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="F16" t="n">
-        <v>343.8892901573526</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="G16" t="n">
-        <v>313.3378010237495</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="H16" t="n">
-        <v>169.0850265132985</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I16" t="n">
         <v>78.40380310951114</v>
       </c>
       <c r="J16" t="n">
-        <v>138.8364736705845</v>
+        <v>138.8364736705844</v>
       </c>
       <c r="K16" t="n">
-        <v>367.9827522988589</v>
+        <v>367.9827522988591</v>
       </c>
       <c r="L16" t="n">
-        <v>716.7375312435116</v>
+        <v>716.7375312435117</v>
       </c>
       <c r="M16" t="n">
         <v>1094.8396697069</v>
@@ -5458,28 +5458,28 @@
         <v>2153.865372781343</v>
       </c>
       <c r="R16" t="n">
-        <v>2073.969458581596</v>
+        <v>2153.865372781343</v>
       </c>
       <c r="S16" t="n">
-        <v>1886.134063493117</v>
+        <v>1966.029977692865</v>
       </c>
       <c r="T16" t="n">
-        <v>1665.311490769898</v>
+        <v>1745.207404969645</v>
       </c>
       <c r="U16" t="n">
-        <v>1665.311490769898</v>
+        <v>1456.116589704318</v>
       </c>
       <c r="V16" t="n">
-        <v>1410.627002564011</v>
+        <v>1201.432101498431</v>
       </c>
       <c r="W16" t="n">
-        <v>1121.20983252705</v>
+        <v>912.0149314614702</v>
       </c>
       <c r="X16" t="n">
-        <v>893.2202816290327</v>
+        <v>684.0253805634528</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.4277024855026</v>
+        <v>463.2328014199227</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1790.919258167085</v>
+        <v>2129.953086371937</v>
       </c>
       <c r="C17" t="n">
-        <v>1790.919258167085</v>
+        <v>1790.919258167083</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.582248295891</v>
+        <v>1462.58224829589</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.722684433204</v>
+        <v>1106.722684433203</v>
       </c>
       <c r="F17" t="n">
-        <v>725.6654683791526</v>
+        <v>725.665468379152</v>
       </c>
       <c r="G17" t="n">
-        <v>341.0142685347512</v>
+        <v>341.0142685347511</v>
       </c>
       <c r="H17" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I17" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J17" t="n">
-        <v>308.2565516437618</v>
+        <v>308.2565516437612</v>
       </c>
       <c r="K17" t="n">
-        <v>703.4847567642277</v>
+        <v>703.4847567642269</v>
       </c>
       <c r="L17" t="n">
-        <v>1230.702055542642</v>
+        <v>1230.702055542641</v>
       </c>
       <c r="M17" t="n">
-        <v>1849.002321775776</v>
+        <v>1849.002321775774</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.921141108422</v>
+        <v>2481.92114110842</v>
       </c>
       <c r="O17" t="n">
-        <v>3066.233173492084</v>
+        <v>3066.233173492082</v>
       </c>
       <c r="P17" t="n">
-        <v>3530.42897373594</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q17" t="n">
-        <v>3830.847941213963</v>
+        <v>3830.847941213961</v>
       </c>
       <c r="R17" t="n">
-        <v>3920.190155475559</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="S17" t="n">
-        <v>3872.76754105406</v>
+        <v>3851.052422629561</v>
       </c>
       <c r="T17" t="n">
-        <v>3698.874670468601</v>
+        <v>3677.159552044103</v>
       </c>
       <c r="U17" t="n">
-        <v>3475.312287403998</v>
+        <v>3677.159552044103</v>
       </c>
       <c r="V17" t="n">
-        <v>3174.178088795984</v>
+        <v>3513.211917000837</v>
       </c>
       <c r="W17" t="n">
-        <v>2851.338122261427</v>
+        <v>3190.37195046628</v>
       </c>
       <c r="X17" t="n">
-        <v>2507.801052735904</v>
+        <v>2846.834880940757</v>
       </c>
       <c r="Y17" t="n">
-        <v>2147.59040949565</v>
+        <v>2486.624237700502</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.2939494295474</v>
       </c>
       <c r="H18" t="n">
-        <v>88.3373321554083</v>
+        <v>88.33733215540832</v>
       </c>
       <c r="I18" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J18" t="n">
-        <v>196.4846785305514</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="K18" t="n">
-        <v>476.4585269951555</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="L18" t="n">
-        <v>899.2404583298523</v>
+        <v>501.1857344442079</v>
       </c>
       <c r="M18" t="n">
-        <v>1411.963899034297</v>
+        <v>979.4915657313746</v>
       </c>
       <c r="N18" t="n">
-        <v>1952.666248473722</v>
+        <v>1520.193915170799</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.506859743276</v>
+        <v>1992.611134930883</v>
       </c>
       <c r="P18" t="n">
-        <v>2368.330261395265</v>
+        <v>2352.434536582871</v>
       </c>
       <c r="Q18" t="n">
-        <v>2558.943479921073</v>
+        <v>2543.047755108679</v>
       </c>
       <c r="R18" t="n">
         <v>2558.943479921073</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>710.0981133120262</v>
+        <v>705.7114836477026</v>
       </c>
       <c r="C19" t="n">
-        <v>571.0906191196761</v>
+        <v>566.7039894553527</v>
       </c>
       <c r="D19" t="n">
-        <v>450.9026684428973</v>
+        <v>507.9948840391853</v>
       </c>
       <c r="E19" t="n">
-        <v>332.9182635960611</v>
+        <v>507.9948840391853</v>
       </c>
       <c r="F19" t="n">
-        <v>215.9570048337077</v>
+        <v>391.0336252768319</v>
       </c>
       <c r="G19" t="n">
-        <v>78.40380310951119</v>
+        <v>253.4804235526355</v>
       </c>
       <c r="H19" t="n">
-        <v>78.40380310951119</v>
+        <v>139.1563377777415</v>
       </c>
       <c r="I19" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J19" t="n">
         <v>168.1695815003039</v>
       </c>
       <c r="K19" t="n">
-        <v>426.648967958298</v>
+        <v>426.6489679582979</v>
       </c>
       <c r="L19" t="n">
-        <v>804.7368547326701</v>
+        <v>804.7368547326699</v>
       </c>
       <c r="M19" t="n">
         <v>1212.172101025778</v>
@@ -5698,25 +5698,25 @@
         <v>2338.563009954908</v>
       </c>
       <c r="S19" t="n">
-        <v>2185.04293326631</v>
+        <v>2180.656303601987</v>
       </c>
       <c r="T19" t="n">
-        <v>1994.149049278647</v>
+        <v>1989.762419614324</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.986922748876</v>
+        <v>1730.600293084553</v>
       </c>
       <c r="V19" t="n">
-        <v>1510.231123278546</v>
+        <v>1505.844493614224</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.742641977143</v>
+        <v>1246.35601231282</v>
       </c>
       <c r="X19" t="n">
-        <v>1052.681779814682</v>
+        <v>1048.295150150358</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.8178894067089</v>
+        <v>857.4312597423852</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1992.766522807191</v>
+        <v>1769.204139742586</v>
       </c>
       <c r="C20" t="n">
-        <v>1653.732694602337</v>
+        <v>1430.170311537731</v>
       </c>
       <c r="D20" t="n">
-        <v>1325.395684731143</v>
+        <v>1101.833301666538</v>
       </c>
       <c r="E20" t="n">
-        <v>969.5361208684558</v>
+        <v>745.9737378038503</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4789048144052</v>
+        <v>364.9165217497998</v>
       </c>
       <c r="G20" t="n">
-        <v>341.0142685347512</v>
+        <v>341.0142685347511</v>
       </c>
       <c r="H20" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="I20" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J20" t="n">
-        <v>308.2565516437621</v>
+        <v>308.2565516437617</v>
       </c>
       <c r="K20" t="n">
-        <v>703.4847567642282</v>
+        <v>703.4847567642273</v>
       </c>
       <c r="L20" t="n">
         <v>1230.702055542642</v>
       </c>
       <c r="M20" t="n">
-        <v>1849.002321775776</v>
+        <v>1849.002321775775</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.921141108422</v>
+        <v>2481.921141108421</v>
       </c>
       <c r="O20" t="n">
-        <v>3066.233173492084</v>
+        <v>3066.233173492083</v>
       </c>
       <c r="P20" t="n">
-        <v>3530.428973735939</v>
+        <v>3530.428973735937</v>
       </c>
       <c r="Q20" t="n">
-        <v>3830.847941213963</v>
+        <v>3830.847941213961</v>
       </c>
       <c r="R20" t="n">
-        <v>3920.190155475559</v>
+        <v>3920.190155475557</v>
       </c>
       <c r="S20" t="n">
-        <v>3851.052422629563</v>
+        <v>3851.052422629561</v>
       </c>
       <c r="T20" t="n">
-        <v>3677.159552044105</v>
+        <v>3677.159552044102</v>
       </c>
       <c r="U20" t="n">
-        <v>3677.159552044105</v>
+        <v>3453.597168979499</v>
       </c>
       <c r="V20" t="n">
-        <v>3376.025353436091</v>
+        <v>3152.462970371485</v>
       </c>
       <c r="W20" t="n">
-        <v>3053.185386901534</v>
+        <v>2829.623003836928</v>
       </c>
       <c r="X20" t="n">
-        <v>2709.648317376011</v>
+        <v>2486.085934311405</v>
       </c>
       <c r="Y20" t="n">
-        <v>2349.437674135756</v>
+        <v>2125.875291071151</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>88.33733215540832</v>
       </c>
       <c r="I21" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J21" t="n">
-        <v>196.4846785305513</v>
+        <v>196.4846785305512</v>
       </c>
       <c r="K21" t="n">
-        <v>476.4585269951553</v>
+        <v>476.458526995155</v>
       </c>
       <c r="L21" t="n">
-        <v>899.2404583298521</v>
+        <v>899.2404583298517</v>
       </c>
       <c r="M21" t="n">
         <v>1411.963899034296</v>
       </c>
       <c r="N21" t="n">
-        <v>1952.666248473721</v>
+        <v>1952.66624847372</v>
       </c>
       <c r="O21" t="n">
-        <v>1992.611134930883</v>
+        <v>2425.083468233803</v>
       </c>
       <c r="P21" t="n">
-        <v>2352.434536582871</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="Q21" t="n">
-        <v>2543.047755108679</v>
+        <v>2558.943479921073</v>
       </c>
       <c r="R21" t="n">
         <v>2558.943479921073</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>885.1747337551501</v>
+        <v>885.1747337551499</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1672395628002</v>
+        <v>746.1672395628</v>
       </c>
       <c r="D22" t="n">
         <v>625.9792888860213</v>
@@ -5899,61 +5899,61 @@
         <v>391.0336252768319</v>
       </c>
       <c r="G22" t="n">
-        <v>253.4804235526356</v>
+        <v>253.4804235526355</v>
       </c>
       <c r="H22" t="n">
-        <v>139.1563377777415</v>
+        <v>139.1563377777414</v>
       </c>
       <c r="I22" t="n">
-        <v>78.40380310951119</v>
+        <v>78.40380310951114</v>
       </c>
       <c r="J22" t="n">
         <v>168.1695815003039</v>
       </c>
       <c r="K22" t="n">
-        <v>426.6489679582982</v>
+        <v>426.6489679582979</v>
       </c>
       <c r="L22" t="n">
-        <v>804.7368547326703</v>
+        <v>804.7368547326698</v>
       </c>
       <c r="M22" t="n">
-        <v>1212.172101025778</v>
+        <v>1212.172101025777</v>
       </c>
       <c r="N22" t="n">
         <v>1616.051539987912</v>
       </c>
       <c r="O22" t="n">
-        <v>1975.322511184312</v>
+        <v>1975.322511184311</v>
       </c>
       <c r="P22" t="n">
-        <v>2263.453777422551</v>
+        <v>2263.45377742255</v>
       </c>
       <c r="Q22" t="n">
         <v>2388.530235419099</v>
       </c>
       <c r="R22" t="n">
-        <v>2388.530235419099</v>
+        <v>2338.563009954908</v>
       </c>
       <c r="S22" t="n">
-        <v>2230.623529066178</v>
+        <v>2180.656303601986</v>
       </c>
       <c r="T22" t="n">
-        <v>2039.729645078515</v>
+        <v>1989.762419614324</v>
       </c>
       <c r="U22" t="n">
-        <v>1780.567518548745</v>
+        <v>1730.600293084553</v>
       </c>
       <c r="V22" t="n">
-        <v>1555.811719078415</v>
+        <v>1505.844493614223</v>
       </c>
       <c r="W22" t="n">
-        <v>1296.323237777011</v>
+        <v>1246.35601231282</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.262375614551</v>
+        <v>1227.758400257806</v>
       </c>
       <c r="Y22" t="n">
-        <v>907.3984852065777</v>
+        <v>1036.894509849833</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1794.72952266133</v>
       </c>
       <c r="D23" t="n">
-        <v>1466.392512790136</v>
+        <v>1466.392512790137</v>
       </c>
       <c r="E23" t="n">
         <v>1110.532948927449</v>
       </c>
       <c r="F23" t="n">
-        <v>729.4757328733986</v>
+        <v>729.4757328733988</v>
       </c>
       <c r="G23" t="n">
-        <v>345.1198728751924</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H23" t="n">
         <v>85.53405664979174</v>
@@ -6005,7 +6005,7 @@
         <v>3331.679112672872</v>
       </c>
       <c r="P23" t="n">
-        <v>3837.499994217058</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q23" t="n">
         <v>4169.177664232584</v>
@@ -6020,10 +6020,10 @@
         <v>4041.695135980005</v>
       </c>
       <c r="U23" t="n">
-        <v>3818.156380103098</v>
+        <v>3818.156380103097</v>
       </c>
       <c r="V23" t="n">
-        <v>3517.022181495084</v>
+        <v>3517.022181495085</v>
       </c>
       <c r="W23" t="n">
         <v>3194.182214960527</v>
@@ -6032,7 +6032,7 @@
         <v>2850.645145435004</v>
       </c>
       <c r="Y23" t="n">
-        <v>2490.434502194749</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J24" t="n">
-        <v>218.247330510387</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="K24" t="n">
-        <v>523.2302785223239</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="L24" t="n">
-        <v>523.2302785223239</v>
+        <v>541.943808640455</v>
       </c>
       <c r="M24" t="n">
-        <v>1075.19579981045</v>
+        <v>1093.909329928581</v>
       </c>
       <c r="N24" t="n">
-        <v>1656.178850938152</v>
+        <v>1674.892381056283</v>
       </c>
       <c r="O24" t="n">
-        <v>2165.445043269172</v>
+        <v>2184.158573387303</v>
       </c>
       <c r="P24" t="n">
         <v>2344.983420158695</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>850.4020931962951</v>
+        <v>850.4020931962959</v>
       </c>
       <c r="C25" t="n">
-        <v>711.3945990039452</v>
+        <v>711.394599003946</v>
       </c>
       <c r="D25" t="n">
-        <v>591.2066483271665</v>
+        <v>591.2066483271674</v>
       </c>
       <c r="E25" t="n">
-        <v>473.2222434803304</v>
+        <v>473.2222434803313</v>
       </c>
       <c r="F25" t="n">
-        <v>356.260984717977</v>
+        <v>392.8695247431302</v>
       </c>
       <c r="G25" t="n">
-        <v>218.8402622813461</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H25" t="n">
-        <v>105.6940378086255</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I25" t="n">
         <v>85.53405664979174</v>
       </c>
       <c r="J25" t="n">
-        <v>184.4797315874122</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K25" t="n">
-        <v>458.044508024635</v>
+        <v>458.0445080246353</v>
       </c>
       <c r="L25" t="n">
-        <v>855.43650025443</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M25" t="n">
-        <v>1283.225219114974</v>
+        <v>1283.225219114975</v>
       </c>
       <c r="N25" t="n">
         <v>1706.97417055914</v>
@@ -6172,25 +6172,25 @@
         <v>2480.37159282037</v>
       </c>
       <c r="S25" t="n">
-        <v>2324.773639142567</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T25" t="n">
-        <v>2134.445803019957</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U25" t="n">
         <v>1875.290902633145</v>
       </c>
       <c r="V25" t="n">
-        <v>1650.535103162815</v>
+        <v>1650.535103162816</v>
       </c>
       <c r="W25" t="n">
-        <v>1391.046621861411</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.985759698951</v>
+        <v>1192.985759698952</v>
       </c>
       <c r="Y25" t="n">
-        <v>1002.121869290978</v>
+        <v>1002.121869290979</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1794.72952266133</v>
       </c>
       <c r="D26" t="n">
-        <v>1466.392512790137</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E26" t="n">
-        <v>1110.53294892745</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F26" t="n">
-        <v>729.475732873399</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G26" t="n">
         <v>345.1198728751923</v>
       </c>
       <c r="H26" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I26" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J26" t="n">
-        <v>339.9545801096006</v>
+        <v>339.954580109601</v>
       </c>
       <c r="K26" t="n">
         <v>772.0035113048184</v>
@@ -6239,22 +6239,22 @@
         <v>2698.595891464764</v>
       </c>
       <c r="O26" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P26" t="n">
-        <v>3837.499994217055</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q26" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R26" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S26" t="n">
-        <v>4214.295156388745</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T26" t="n">
-        <v>4041.695135980003</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U26" t="n">
         <v>3818.156380103098</v>
@@ -6297,34 +6297,34 @@
         <v>176.457428551721</v>
       </c>
       <c r="H27" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I27" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J27" t="n">
-        <v>218.2473305103869</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K27" t="n">
-        <v>523.2302785223238</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L27" t="n">
-        <v>839.8245950305551</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M27" t="n">
-        <v>839.8245950305551</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N27" t="n">
-        <v>1420.807646158257</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O27" t="n">
-        <v>1930.073838489277</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q27" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R27" t="n">
         <v>2555.3664415806</v>
@@ -6373,22 +6373,22 @@
         <v>392.8695247431303</v>
       </c>
       <c r="G28" t="n">
-        <v>255.4488023064994</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3025778337788</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I28" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J28" t="n">
-        <v>184.4797315874123</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K28" t="n">
-        <v>458.0445080246351</v>
+        <v>458.0445080246353</v>
       </c>
       <c r="L28" t="n">
-        <v>855.4365002544303</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M28" t="n">
         <v>1283.225219114974</v>
@@ -6412,16 +6412,16 @@
         <v>2324.773639142568</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.054343045111</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U28" t="n">
-        <v>1911.899442658298</v>
+        <v>1875.290902633145</v>
       </c>
       <c r="V28" t="n">
-        <v>1687.143643187968</v>
+        <v>1650.535103162815</v>
       </c>
       <c r="W28" t="n">
-        <v>1427.655161886565</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X28" t="n">
         <v>1229.594299724104</v>
@@ -6464,22 +6464,22 @@
         <v>339.954580109601</v>
       </c>
       <c r="K29" t="n">
-        <v>772.0035113048193</v>
+        <v>772.0035113048184</v>
       </c>
       <c r="L29" t="n">
-        <v>1344.900176690283</v>
+        <v>1344.900176690282</v>
       </c>
       <c r="M29" t="n">
-        <v>2014.027539745432</v>
+        <v>2014.02753974543</v>
       </c>
       <c r="N29" t="n">
-        <v>2698.595891464766</v>
+        <v>2698.595891464764</v>
       </c>
       <c r="O29" t="n">
-        <v>3331.679112672872</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P29" t="n">
-        <v>3837.499994217058</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q29" t="n">
         <v>4169.177664232584</v>
@@ -6543,25 +6543,25 @@
         <v>218.247330510387</v>
       </c>
       <c r="K30" t="n">
-        <v>218.247330510387</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L30" t="n">
-        <v>674.6570825010502</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M30" t="n">
-        <v>1226.622603789177</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N30" t="n">
-        <v>1807.605654916878</v>
+        <v>2046.10024924958</v>
       </c>
       <c r="O30" t="n">
-        <v>1930.073838489277</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R30" t="n">
         <v>2555.3664415806</v>
@@ -6604,28 +6604,28 @@
         <v>627.8151883523199</v>
       </c>
       <c r="E31" t="n">
-        <v>509.8307835054837</v>
+        <v>509.8307835054838</v>
       </c>
       <c r="F31" t="n">
-        <v>392.8695247431303</v>
+        <v>392.8695247431304</v>
       </c>
       <c r="G31" t="n">
-        <v>255.4488023064994</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3025778337788</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I31" t="n">
         <v>85.53405664979174</v>
       </c>
       <c r="J31" t="n">
-        <v>184.4797315874125</v>
+        <v>184.4797315874126</v>
       </c>
       <c r="K31" t="n">
-        <v>458.0445080246353</v>
+        <v>458.0445080246354</v>
       </c>
       <c r="L31" t="n">
-        <v>855.4365002544305</v>
+        <v>855.4365002544306</v>
       </c>
       <c r="M31" t="n">
         <v>1283.225219114975</v>
@@ -6643,22 +6643,22 @@
         <v>2524.382067772751</v>
       </c>
       <c r="R31" t="n">
-        <v>2516.980132845522</v>
+        <v>2480.37159282037</v>
       </c>
       <c r="S31" t="n">
-        <v>2361.382179167721</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.054343045111</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U31" t="n">
-        <v>1911.899442658298</v>
+        <v>1875.290902633145</v>
       </c>
       <c r="V31" t="n">
-        <v>1687.143643187968</v>
+        <v>1650.535103162815</v>
       </c>
       <c r="W31" t="n">
-        <v>1427.655161886565</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X31" t="n">
         <v>1229.594299724104</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2133.763350866183</v>
+        <v>2133.763350866184</v>
       </c>
       <c r="C32" t="n">
         <v>1794.729522661329</v>
       </c>
       <c r="D32" t="n">
-        <v>1466.392512790135</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.532948927448</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F32" t="n">
-        <v>729.4757328733976</v>
+        <v>729.4757328733981</v>
       </c>
       <c r="G32" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H32" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I32" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J32" t="n">
-        <v>339.9545801096006</v>
+        <v>339.954580109601</v>
       </c>
       <c r="K32" t="n">
         <v>772.0035113048184</v>
@@ -6713,37 +6713,37 @@
         <v>2698.595891464764</v>
       </c>
       <c r="O32" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P32" t="n">
-        <v>3837.499994217055</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q32" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R32" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S32" t="n">
-        <v>4214.295156388745</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T32" t="n">
-        <v>4041.695135980003</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U32" t="n">
-        <v>3818.156380103096</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V32" t="n">
-        <v>3517.022181495082</v>
+        <v>3517.022181495084</v>
       </c>
       <c r="W32" t="n">
-        <v>3194.182214960525</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X32" t="n">
-        <v>2850.645145435003</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y32" t="n">
-        <v>2490.434502194748</v>
+        <v>2490.434502194749</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.457428551721</v>
       </c>
       <c r="H33" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I33" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J33" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="K33" t="n">
-        <v>313.3707046088749</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="L33" t="n">
-        <v>313.3707046088749</v>
+        <v>287.8590737424289</v>
       </c>
       <c r="M33" t="n">
-        <v>865.3362258970011</v>
+        <v>839.8245950305551</v>
       </c>
       <c r="N33" t="n">
-        <v>1446.319277024703</v>
+        <v>1420.807646158257</v>
       </c>
       <c r="O33" t="n">
-        <v>1955.585469355723</v>
+        <v>1930.073838489277</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.983420158695</v>
+        <v>2319.471789292249</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.3664415806</v>
+        <v>2529.854810714154</v>
       </c>
       <c r="R33" t="n">
         <v>2555.3664415806</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>887.0106332214478</v>
+        <v>887.0106332214485</v>
       </c>
       <c r="C34" t="n">
-        <v>748.003139029098</v>
+        <v>748.0031390290986</v>
       </c>
       <c r="D34" t="n">
-        <v>627.8151883523193</v>
+        <v>627.8151883523199</v>
       </c>
       <c r="E34" t="n">
-        <v>509.8307835054833</v>
+        <v>509.8307835054837</v>
       </c>
       <c r="F34" t="n">
-        <v>392.86952474313</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G34" t="n">
-        <v>255.4488023064991</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H34" t="n">
         <v>142.3025778337787</v>
       </c>
       <c r="I34" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J34" t="n">
-        <v>184.4797315874125</v>
+        <v>184.4797315874123</v>
       </c>
       <c r="K34" t="n">
-        <v>458.0445080246354</v>
+        <v>458.0445080246351</v>
       </c>
       <c r="L34" t="n">
-        <v>855.4365002544307</v>
+        <v>855.4365002544303</v>
       </c>
       <c r="M34" t="n">
         <v>1283.225219114975</v>
@@ -6874,28 +6874,28 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P34" t="n">
-        <v>2388.433033320908</v>
+        <v>2388.433033320906</v>
       </c>
       <c r="Q34" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.38206777275</v>
       </c>
       <c r="R34" t="n">
-        <v>2516.980132845522</v>
+        <v>2516.980132845523</v>
       </c>
       <c r="S34" t="n">
-        <v>2361.38217916772</v>
+        <v>2361.382179167721</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.05434304511</v>
+        <v>2171.054343045111</v>
       </c>
       <c r="U34" t="n">
-        <v>1911.899442658297</v>
+        <v>1911.899442658298</v>
       </c>
       <c r="V34" t="n">
-        <v>1687.143643187967</v>
+        <v>1687.143643187968</v>
       </c>
       <c r="W34" t="n">
-        <v>1427.655161886564</v>
+        <v>1427.655161886565</v>
       </c>
       <c r="X34" t="n">
         <v>1229.594299724104</v>
@@ -6938,10 +6938,10 @@
         <v>339.954580109601</v>
       </c>
       <c r="K35" t="n">
-        <v>772.0035113048193</v>
+        <v>772.0035113048198</v>
       </c>
       <c r="L35" t="n">
-        <v>1344.900176690283</v>
+        <v>1344.900176690284</v>
       </c>
       <c r="M35" t="n">
         <v>2014.027539745432</v>
@@ -6953,7 +6953,7 @@
         <v>3331.679112672872</v>
       </c>
       <c r="P35" t="n">
-        <v>3837.499994217058</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q35" t="n">
         <v>4169.177664232584</v>
@@ -7023,19 +7023,19 @@
         <v>979.6400305129872</v>
       </c>
       <c r="M36" t="n">
-        <v>1420.807646158257</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N36" t="n">
-        <v>1420.807646158257</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O36" t="n">
-        <v>1930.073838489277</v>
+        <v>2165.968490777627</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R36" t="n">
         <v>2555.3664415806</v>
@@ -7087,22 +7087,22 @@
         <v>255.4488023064994</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3025778337788</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I37" t="n">
         <v>85.53405664979174</v>
       </c>
       <c r="J37" t="n">
-        <v>184.4797315874123</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K37" t="n">
-        <v>458.0445080246351</v>
+        <v>458.0445080246353</v>
       </c>
       <c r="L37" t="n">
-        <v>855.4365002544303</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M37" t="n">
-        <v>1283.225219114975</v>
+        <v>1283.225219114974</v>
       </c>
       <c r="N37" t="n">
         <v>1706.97417055914</v>
@@ -7114,28 +7114,28 @@
         <v>2388.433033320907</v>
       </c>
       <c r="Q37" t="n">
-        <v>2524.382067772752</v>
+        <v>2524.382067772751</v>
       </c>
       <c r="R37" t="n">
-        <v>2516.980132845523</v>
+        <v>2480.37159282037</v>
       </c>
       <c r="S37" t="n">
-        <v>2361.382179167721</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.054343045111</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U37" t="n">
-        <v>1911.899442658298</v>
+        <v>1875.290902633146</v>
       </c>
       <c r="V37" t="n">
-        <v>1687.143643187968</v>
+        <v>1650.535103162816</v>
       </c>
       <c r="W37" t="n">
-        <v>1427.655161886565</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X37" t="n">
-        <v>1229.594299724104</v>
+        <v>1192.985759698952</v>
       </c>
       <c r="Y37" t="n">
         <v>1038.730409316131</v>
@@ -7151,16 +7151,16 @@
         <v>2133.763350866185</v>
       </c>
       <c r="C38" t="n">
-        <v>1794.729522661331</v>
+        <v>1794.72952266133</v>
       </c>
       <c r="D38" t="n">
         <v>1466.392512790137</v>
       </c>
       <c r="E38" t="n">
-        <v>1110.532948927449</v>
+        <v>1110.53294892745</v>
       </c>
       <c r="F38" t="n">
-        <v>729.4757328733987</v>
+        <v>729.475732873399</v>
       </c>
       <c r="G38" t="n">
         <v>345.1198728751923</v>
@@ -7199,10 +7199,10 @@
         <v>4276.702832489586</v>
       </c>
       <c r="S38" t="n">
-        <v>4214.295156388748</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T38" t="n">
-        <v>4041.695135980006</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U38" t="n">
         <v>3818.156380103098</v>
@@ -7211,7 +7211,7 @@
         <v>3517.022181495085</v>
       </c>
       <c r="W38" t="n">
-        <v>3194.182214960528</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X38" t="n">
         <v>2850.645145435004</v>
@@ -7251,28 +7251,28 @@
         <v>85.53405664979174</v>
       </c>
       <c r="J39" t="n">
-        <v>85.53405664979174</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K39" t="n">
-        <v>287.8590737424289</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L39" t="n">
-        <v>287.8590737424289</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M39" t="n">
-        <v>839.8245950305551</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N39" t="n">
-        <v>1420.807646158257</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O39" t="n">
-        <v>1930.073838489277</v>
+        <v>2165.968490777627</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R39" t="n">
         <v>2555.3664415806</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>850.4020931962957</v>
+        <v>850.4020931962962</v>
       </c>
       <c r="C40" t="n">
-        <v>711.3945990039458</v>
+        <v>711.3945990039463</v>
       </c>
       <c r="D40" t="n">
-        <v>591.2066483271672</v>
+        <v>591.2066483271676</v>
       </c>
       <c r="E40" t="n">
-        <v>473.2222434803311</v>
+        <v>473.2222434803315</v>
       </c>
       <c r="F40" t="n">
-        <v>356.2609847179777</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G40" t="n">
-        <v>218.8402622813468</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H40" t="n">
-        <v>105.6940378086262</v>
+        <v>142.3025778337788</v>
       </c>
       <c r="I40" t="n">
         <v>85.53405664979174</v>
@@ -7348,7 +7348,7 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P40" t="n">
-        <v>2388.433033320907</v>
+        <v>2388.433033320908</v>
       </c>
       <c r="Q40" t="n">
         <v>2524.382067772752</v>
@@ -7363,7 +7363,7 @@
         <v>2134.445803019958</v>
       </c>
       <c r="U40" t="n">
-        <v>1875.290902633145</v>
+        <v>1875.290902633146</v>
       </c>
       <c r="V40" t="n">
         <v>1650.535103162816</v>
@@ -7372,10 +7372,10 @@
         <v>1391.046621861412</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.985759698951</v>
+        <v>1192.985759698952</v>
       </c>
       <c r="Y40" t="n">
-        <v>1002.121869290978</v>
+        <v>1002.121869290979</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2133.763350866184</v>
+        <v>2133.763350866185</v>
       </c>
       <c r="C41" t="n">
         <v>1794.72952266133</v>
       </c>
       <c r="D41" t="n">
-        <v>1466.392512790136</v>
+        <v>1466.392512790137</v>
       </c>
       <c r="E41" t="n">
         <v>1110.532948927449</v>
       </c>
       <c r="F41" t="n">
-        <v>729.4757328733983</v>
+        <v>729.4757328733987</v>
       </c>
       <c r="G41" t="n">
-        <v>345.1198728751922</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H41" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I41" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J41" t="n">
-        <v>339.9545801096006</v>
+        <v>339.954580109601</v>
       </c>
       <c r="K41" t="n">
         <v>772.0035113048184</v>
@@ -7424,37 +7424,37 @@
         <v>2698.595891464764</v>
       </c>
       <c r="O41" t="n">
-        <v>3331.67911267287</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P41" t="n">
-        <v>3837.499994217056</v>
+        <v>3837.499994217057</v>
       </c>
       <c r="Q41" t="n">
-        <v>4169.177664232582</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R41" t="n">
-        <v>4276.702832489585</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S41" t="n">
-        <v>4214.295156388745</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T41" t="n">
-        <v>4041.695135980003</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U41" t="n">
-        <v>3818.156380103096</v>
+        <v>3818.156380103098</v>
       </c>
       <c r="V41" t="n">
-        <v>3517.022181495082</v>
+        <v>3517.022181495084</v>
       </c>
       <c r="W41" t="n">
-        <v>3194.182214960525</v>
+        <v>3194.182214960527</v>
       </c>
       <c r="X41" t="n">
-        <v>2850.645145435002</v>
+        <v>2850.645145435004</v>
       </c>
       <c r="Y41" t="n">
-        <v>2490.434502194749</v>
+        <v>2490.43450219475</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.457428551721</v>
       </c>
       <c r="H42" t="n">
-        <v>90.0269590361047</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I42" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J42" t="n">
-        <v>218.2473305103869</v>
+        <v>218.247330510387</v>
       </c>
       <c r="K42" t="n">
-        <v>523.2302785223238</v>
+        <v>523.2302785223239</v>
       </c>
       <c r="L42" t="n">
-        <v>979.6400305129871</v>
+        <v>979.6400305129872</v>
       </c>
       <c r="M42" t="n">
-        <v>979.6400305129871</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N42" t="n">
-        <v>1560.623081640689</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O42" t="n">
-        <v>2069.889273971709</v>
+        <v>2165.968490777627</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R42" t="n">
         <v>2555.3664415806</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>887.0106332214484</v>
+        <v>887.0106332214493</v>
       </c>
       <c r="C43" t="n">
-        <v>748.0031390290985</v>
+        <v>748.0031390290994</v>
       </c>
       <c r="D43" t="n">
-        <v>627.8151883523199</v>
+        <v>627.8151883523207</v>
       </c>
       <c r="E43" t="n">
-        <v>509.8307835054838</v>
+        <v>509.8307835054845</v>
       </c>
       <c r="F43" t="n">
-        <v>392.8695247431305</v>
+        <v>392.8695247431303</v>
       </c>
       <c r="G43" t="n">
-        <v>255.4488023064996</v>
+        <v>255.4488023064994</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3025778337788</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I43" t="n">
-        <v>85.53405664979169</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J43" t="n">
         <v>184.4797315874125</v>
       </c>
       <c r="K43" t="n">
-        <v>458.0445080246353</v>
+        <v>458.0445080246351</v>
       </c>
       <c r="L43" t="n">
-        <v>855.4365002544305</v>
+        <v>855.4365002544303</v>
       </c>
       <c r="M43" t="n">
         <v>1283.225219114975</v>
@@ -7585,34 +7585,34 @@
         <v>2084.597852506482</v>
       </c>
       <c r="P43" t="n">
-        <v>2388.433033320907</v>
+        <v>2388.433033320908</v>
       </c>
       <c r="Q43" t="n">
         <v>2524.382067772752</v>
       </c>
       <c r="R43" t="n">
-        <v>2516.980132845523</v>
+        <v>2480.371592820371</v>
       </c>
       <c r="S43" t="n">
-        <v>2361.382179167721</v>
+        <v>2324.773639142568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.054343045111</v>
+        <v>2134.445803019958</v>
       </c>
       <c r="U43" t="n">
-        <v>1911.899442658298</v>
+        <v>1875.290902633146</v>
       </c>
       <c r="V43" t="n">
-        <v>1687.143643187969</v>
+        <v>1650.535103162816</v>
       </c>
       <c r="W43" t="n">
-        <v>1427.655161886565</v>
+        <v>1391.046621861412</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.594299724104</v>
+        <v>1192.985759698952</v>
       </c>
       <c r="Y43" t="n">
-        <v>1038.730409316131</v>
+        <v>1002.121869290979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,67 +7622,67 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2133.763350866185</v>
+        <v>2133.763350866184</v>
       </c>
       <c r="C44" t="n">
         <v>1794.72952266133</v>
       </c>
       <c r="D44" t="n">
-        <v>1466.392512790137</v>
+        <v>1466.392512790136</v>
       </c>
       <c r="E44" t="n">
-        <v>1110.53294892745</v>
+        <v>1110.532948927449</v>
       </c>
       <c r="F44" t="n">
-        <v>729.475732873399</v>
+        <v>729.4757328733986</v>
       </c>
       <c r="G44" t="n">
-        <v>345.1198728751924</v>
+        <v>345.1198728751923</v>
       </c>
       <c r="H44" t="n">
-        <v>85.53405664979175</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="I44" t="n">
-        <v>85.53405664979175</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J44" t="n">
-        <v>339.9545801096006</v>
+        <v>339.9545801096001</v>
       </c>
       <c r="K44" t="n">
-        <v>772.0035113048184</v>
+        <v>772.0035113048179</v>
       </c>
       <c r="L44" t="n">
-        <v>1344.900176690284</v>
+        <v>1344.900176690282</v>
       </c>
       <c r="M44" t="n">
-        <v>2014.027539745433</v>
+        <v>2014.02753974543</v>
       </c>
       <c r="N44" t="n">
-        <v>2698.595891464767</v>
+        <v>2698.595891464764</v>
       </c>
       <c r="O44" t="n">
-        <v>3331.679112672873</v>
+        <v>3331.679112672871</v>
       </c>
       <c r="P44" t="n">
         <v>3837.499994217058</v>
       </c>
       <c r="Q44" t="n">
-        <v>4169.177664232585</v>
+        <v>4169.177664232584</v>
       </c>
       <c r="R44" t="n">
-        <v>4276.702832489587</v>
+        <v>4276.702832489586</v>
       </c>
       <c r="S44" t="n">
-        <v>4214.295156388748</v>
+        <v>4214.295156388747</v>
       </c>
       <c r="T44" t="n">
-        <v>4041.695135980006</v>
+        <v>4041.695135980005</v>
       </c>
       <c r="U44" t="n">
-        <v>3818.156380103098</v>
+        <v>3818.156380103097</v>
       </c>
       <c r="V44" t="n">
-        <v>3517.022181495085</v>
+        <v>3517.022181495084</v>
       </c>
       <c r="W44" t="n">
         <v>3194.182214960527</v>
@@ -7691,7 +7691,7 @@
         <v>2850.645145435004</v>
       </c>
       <c r="Y44" t="n">
-        <v>2490.43450219475</v>
+        <v>2490.434502194749</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.457428551721</v>
       </c>
       <c r="H45" t="n">
-        <v>90.02695903610476</v>
+        <v>90.02695903610474</v>
       </c>
       <c r="I45" t="n">
-        <v>85.53405664979175</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J45" t="n">
         <v>218.247330510387</v>
@@ -7734,19 +7734,19 @@
         <v>979.6400305129872</v>
       </c>
       <c r="M45" t="n">
-        <v>1229.222545833527</v>
+        <v>1531.605551801114</v>
       </c>
       <c r="N45" t="n">
-        <v>1810.205596961229</v>
+        <v>2112.588602928815</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.471789292249</v>
+        <v>2165.968490777627</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.471789292249</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.854810714154</v>
+        <v>2555.3664415806</v>
       </c>
       <c r="R45" t="n">
         <v>2555.3664415806</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.4020931962956</v>
+        <v>850.4020931962963</v>
       </c>
       <c r="C46" t="n">
-        <v>711.3945990039457</v>
+        <v>711.3945990039464</v>
       </c>
       <c r="D46" t="n">
-        <v>591.2066483271669</v>
+        <v>627.8151883523199</v>
       </c>
       <c r="E46" t="n">
-        <v>473.2222434803309</v>
+        <v>509.8307835054838</v>
       </c>
       <c r="F46" t="n">
-        <v>356.2609847179775</v>
+        <v>392.8695247431304</v>
       </c>
       <c r="G46" t="n">
-        <v>218.8402622813466</v>
+        <v>255.4488023064995</v>
       </c>
       <c r="H46" t="n">
-        <v>105.6940378086259</v>
+        <v>142.3025778337789</v>
       </c>
       <c r="I46" t="n">
-        <v>85.53405664979175</v>
+        <v>85.53405664979174</v>
       </c>
       <c r="J46" t="n">
-        <v>184.4797315874123</v>
+        <v>184.4797315874125</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0445080246351</v>
+        <v>458.0445080246353</v>
       </c>
       <c r="L46" t="n">
-        <v>855.4365002544303</v>
+        <v>855.4365002544305</v>
       </c>
       <c r="M46" t="n">
-        <v>1283.225219114975</v>
+        <v>1283.225219114974</v>
       </c>
       <c r="N46" t="n">
         <v>1706.97417055914</v>
@@ -7849,7 +7849,7 @@
         <v>1192.985759698951</v>
       </c>
       <c r="Y46" t="n">
-        <v>1002.121869290978</v>
+        <v>1002.121869290979</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>326.9235694458711</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.77734445219946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.07575736573749</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>2.981302718344291</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>4.819448841233168</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.09695505775035</v>
+        <v>79.09695505775032</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9570411375936</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1999071126743</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>257.6083648761872</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4340896941583</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>263.4432359779825</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>22.77734445219949</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>98.07575736573749</v>
       </c>
       <c r="T14" t="n">
-        <v>22.58148997735847</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>114.7135659714703</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>135.5610973128888</v>
+        <v>165.8070715551559</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.8102467653466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>89.77441116974946</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.09695505775035</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1999071126743</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>335.6434899228062</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.49796724025205</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>221.3267592339569</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>135.8146979291007</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>60.86405680800519</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>116.8045607983677</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>113.1808449171452</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>60.14500932154806</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4.342763367680504</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>135.8146979290989</v>
+        <v>357.1414571630589</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>221.3267592339569</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.2010643968226</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.4675532095489</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>177.6686176063717</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>36.24245462490072</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>36.24245462490181</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>36.24245462490118</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>36.24245462490057</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.24245462490062</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>36.2424546249014</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.2424546248996</v>
+        <v>36.2424546249019</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>36.24245462490009</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>36.24245462490126</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>36.24245462490062</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>36.24245462490105</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.762145984685048e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>36.24245462490197</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.24245462490074</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>36.2424546249007</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>36.24245462490141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>803597.8621768591</v>
+        <v>803597.8621768592</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803597.8621768593</v>
+        <v>803597.8621768589</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835420.5500785935</v>
+        <v>835420.5500785937</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>835420.5500785938</v>
+        <v>835420.5500785937</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>835420.5500785935</v>
+        <v>835420.5500785937</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982119</v>
+        <v>615781.327398212</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982122</v>
@@ -26320,40 +26320,40 @@
         <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
+        <v>552422.8901756535</v>
+      </c>
+      <c r="F2" t="n">
         <v>552422.8901756534</v>
       </c>
-      <c r="F2" t="n">
-        <v>552422.8901756535</v>
-      </c>
       <c r="G2" t="n">
-        <v>591261.9472886634</v>
+        <v>591261.9472886631</v>
       </c>
       <c r="H2" t="n">
-        <v>591261.9472886632</v>
+        <v>591261.9472886631</v>
       </c>
       <c r="I2" t="n">
         <v>615128.9632149639</v>
       </c>
       <c r="J2" t="n">
+        <v>615128.9632149638</v>
+      </c>
+      <c r="K2" t="n">
         <v>615128.9632149639</v>
       </c>
-      <c r="K2" t="n">
-        <v>615128.9632149641</v>
-      </c>
       <c r="L2" t="n">
-        <v>615128.9632149637</v>
+        <v>615128.9632149639</v>
       </c>
       <c r="M2" t="n">
-        <v>615128.9632149641</v>
+        <v>615128.963214964</v>
       </c>
       <c r="N2" t="n">
-        <v>615128.9632149644</v>
+        <v>615128.963214964</v>
       </c>
       <c r="O2" t="n">
         <v>615128.963214964</v>
       </c>
       <c r="P2" t="n">
-        <v>615128.9632149644</v>
+        <v>615128.963214964</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>65327.89037938145</v>
       </c>
       <c r="E3" t="n">
-        <v>870304.8890598684</v>
+        <v>870304.8890598686</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23703.52147856174</v>
+        <v>23703.52147856115</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>78449.33642443932</v>
+        <v>78449.33642443981</v>
       </c>
       <c r="J3" t="n">
-        <v>3639.907031011624</v>
+        <v>3639.907031011744</v>
       </c>
       <c r="K3" t="n">
-        <v>9235.220671895135</v>
+        <v>9235.220671895018</v>
       </c>
       <c r="L3" t="n">
-        <v>34553.51803558724</v>
+        <v>34553.51803558738</v>
       </c>
       <c r="M3" t="n">
-        <v>221139.2908536413</v>
+        <v>221139.2908536412</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>15946.76905503083</v>
       </c>
       <c r="G4" t="n">
-        <v>45577.32446075071</v>
+        <v>45577.32446075079</v>
       </c>
       <c r="H4" t="n">
-        <v>45577.32446075077</v>
+        <v>45577.32446075079</v>
       </c>
       <c r="I4" t="n">
-        <v>45111.32319466873</v>
+        <v>45111.32319466875</v>
       </c>
       <c r="J4" t="n">
         <v>45111.32319466873</v>
       </c>
       <c r="K4" t="n">
+        <v>45111.32319466873</v>
+      </c>
+      <c r="L4" t="n">
         <v>45111.32319466874</v>
       </c>
-      <c r="L4" t="n">
-        <v>45111.3231946688</v>
-      </c>
       <c r="M4" t="n">
-        <v>45111.32319466873</v>
+        <v>45111.32319466874</v>
       </c>
       <c r="N4" t="n">
         <v>45111.32319466876</v>
       </c>
       <c r="O4" t="n">
-        <v>45111.32319466876</v>
+        <v>45111.32319466874</v>
       </c>
       <c r="P4" t="n">
         <v>45111.32319466873</v>
@@ -26482,22 +26482,22 @@
         <v>85988.35033443017</v>
       </c>
       <c r="G5" t="n">
-        <v>88479.26451840665</v>
+        <v>88479.26451840662</v>
       </c>
       <c r="H5" t="n">
-        <v>88479.26451840665</v>
+        <v>88479.26451840662</v>
       </c>
       <c r="I5" t="n">
         <v>95483.79581846157</v>
       </c>
       <c r="J5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="K5" t="n">
         <v>95483.79581846157</v>
       </c>
       <c r="L5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="M5" t="n">
         <v>95483.79581846157</v>
@@ -26506,10 +26506,10 @@
         <v>95483.79581846157</v>
       </c>
       <c r="O5" t="n">
-        <v>95483.79581846154</v>
+        <v>95483.79581846157</v>
       </c>
       <c r="P5" t="n">
-        <v>95483.79581846159</v>
+        <v>95483.79581846157</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115458.2083505329</v>
+        <v>-115458.2083505328</v>
       </c>
       <c r="C6" t="n">
         <v>179335.8505230458</v>
       </c>
       <c r="D6" t="n">
-        <v>188729.05580118</v>
+        <v>188729.0558011799</v>
       </c>
       <c r="E6" t="n">
-        <v>-419817.118273676</v>
+        <v>-420028.313064418</v>
       </c>
       <c r="F6" t="n">
-        <v>450487.7707861926</v>
+        <v>450276.5759954508</v>
       </c>
       <c r="G6" t="n">
-        <v>433501.8368309443</v>
+        <v>433420.1055639128</v>
       </c>
       <c r="H6" t="n">
-        <v>457205.3583095059</v>
+        <v>457123.6270424739</v>
       </c>
       <c r="I6" t="n">
-        <v>396084.5077773943</v>
+        <v>396082.3332301163</v>
       </c>
       <c r="J6" t="n">
-        <v>470893.9371708219</v>
+        <v>470891.7626235442</v>
       </c>
       <c r="K6" t="n">
-        <v>465298.6235299386</v>
+        <v>465296.4489826611</v>
       </c>
       <c r="L6" t="n">
-        <v>439980.3261662461</v>
+        <v>439978.1516189687</v>
       </c>
       <c r="M6" t="n">
-        <v>253394.5533481925</v>
+        <v>253392.378800915</v>
       </c>
       <c r="N6" t="n">
-        <v>474533.8442018341</v>
+        <v>474531.6696545562</v>
       </c>
       <c r="O6" t="n">
-        <v>474533.8442018337</v>
+        <v>474531.6696545562</v>
       </c>
       <c r="P6" t="n">
-        <v>474533.8442018339</v>
+        <v>474531.6696545562</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J2" t="n">
         <v>29.62940184820141</v>
@@ -26713,7 +26713,7 @@
         <v>29.62940184820141</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M2" t="n">
         <v>29.62940184820141</v>
@@ -26722,10 +26722,10 @@
         <v>29.62940184820144</v>
       </c>
       <c r="O2" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P2" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="3">
@@ -26750,7 +26750,7 @@
         <v>1211.076145467968</v>
       </c>
       <c r="G3" t="n">
-        <v>1211.076145467969</v>
+        <v>1211.076145467968</v>
       </c>
       <c r="H3" t="n">
         <v>1211.076145467968</v>
@@ -26796,28 +26796,28 @@
         <v>92.66494928910245</v>
       </c>
       <c r="E4" t="n">
-        <v>980.0475388688893</v>
+        <v>980.0475388688892</v>
       </c>
       <c r="F4" t="n">
-        <v>980.0475388688893</v>
+        <v>980.0475388688892</v>
       </c>
       <c r="G4" t="n">
-        <v>980.0475388688898</v>
+        <v>980.0475388688892</v>
       </c>
       <c r="H4" t="n">
-        <v>980.0475388688898</v>
+        <v>980.0475388688892</v>
       </c>
       <c r="I4" t="n">
         <v>1069.175708122397</v>
       </c>
       <c r="J4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="K4" t="n">
         <v>1069.175708122397</v>
       </c>
       <c r="L4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="M4" t="n">
         <v>1069.175708122397</v>
@@ -26826,7 +26826,7 @@
         <v>1069.175708122397</v>
       </c>
       <c r="O4" t="n">
-        <v>1069.175708122396</v>
+        <v>1069.175708122397</v>
       </c>
       <c r="P4" t="n">
         <v>1069.175708122397</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,19 +26966,19 @@
         <v>60.73137549659776</v>
       </c>
       <c r="E3" t="n">
-        <v>753.4848267038021</v>
+        <v>753.4848267038024</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>72.73112887347247</v>
+        <v>72.73112887347293</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>42.86994226197783</v>
       </c>
       <c r="E4" t="n">
-        <v>887.3825895797869</v>
+        <v>887.3825895797868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.12816925350683</v>
+        <v>89.12816925350739</v>
       </c>
       <c r="J4" t="n">
-        <v>13.91167781799554</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="K4" t="n">
-        <v>35.88332920912909</v>
+        <v>35.88332920912863</v>
       </c>
       <c r="L4" t="n">
-        <v>42.86994226197737</v>
+        <v>42.86994226197783</v>
       </c>
       <c r="M4" t="n">
-        <v>887.3825895797873</v>
+        <v>887.3825895797868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>42.86994226197783</v>
       </c>
       <c r="M4" t="n">
-        <v>887.3825895797869</v>
+        <v>887.3825895797868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>392.9643679237154</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>325.2286119924418</v>
+        <v>321.5877646376267</v>
       </c>
       <c r="I2" t="n">
         <v>156.8470605964523</v>
@@ -27421,7 +27421,7 @@
         <v>31.19687248205148</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.41041257392435</v>
+        <v>72.08689200502397</v>
       </c>
       <c r="R2" t="n">
         <v>128.2043841137207</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.6215058318714</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27482,7 +27482,7 @@
         <v>56.51924730017588</v>
       </c>
       <c r="K3" t="n">
-        <v>17.65612849034747</v>
+        <v>3.744450672351478</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>31.063081130272</v>
       </c>
       <c r="R3" t="n">
-        <v>87.21529185098389</v>
+        <v>85.55701985507876</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8584491031374</v>
+        <v>145.6050432810465</v>
       </c>
       <c r="T3" t="n">
         <v>197.1647476986838</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>191.7710179593084</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27637,7 +27637,7 @@
         <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
-        <v>16.38705359016017</v>
+        <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
         <v>17.14684397594775</v>
@@ -27667,7 +27667,7 @@
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
         <v>251.2180195592479</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>386.1997398442712</v>
       </c>
     </row>
     <row r="6">
@@ -27698,25 +27698,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>134.6031353021189</v>
       </c>
       <c r="E6" t="n">
         <v>107.8500734282763</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>95.27420536625925</v>
       </c>
       <c r="G6" t="n">
-        <v>86.69488686188785</v>
+        <v>86.69488686188784</v>
       </c>
       <c r="H6" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
         <v>70.13228042782632</v>
       </c>
       <c r="J6" t="n">
-        <v>2.329504874093416</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,7 +27737,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>31.01751192697151</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>92.6799817290989</v>
@@ -27856,25 +27856,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>321.6326121446449</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831594</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>314.211096452609</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>320.7982251355234</v>
       </c>
       <c r="H8" t="n">
         <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444714</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358025</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>100.031082829933</v>
       </c>
       <c r="S8" t="n">
-        <v>74.43607637216428</v>
+        <v>167.1010256612667</v>
       </c>
       <c r="T8" t="n">
-        <v>122.3782128463248</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
-        <v>213.5719918773147</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,31 +27929,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>73.86823436076489</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921329</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.7801162755363</v>
       </c>
       <c r="E9" t="n">
-        <v>64.98013116629849</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>69.08271559472556</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
-        <v>10.06468283495351</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
         <v>65.63472101604998</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516765</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>14.34273879062262</v>
       </c>
       <c r="R9" t="n">
         <v>84.56947841277967</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>113.0177464882019</v>
+        <v>157.9107087186306</v>
       </c>
     </row>
     <row r="10">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I17" t="n">
-        <v>22.7773444521994</v>
+        <v>22.77734445219949</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.62940184820135</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I20" t="n">
-        <v>22.77734445219943</v>
+        <v>22.77734445219949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I23" t="n">
         <v>11.5051159259902</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="C25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="D25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="E25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="F25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="G25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="H25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="I25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="J25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="K25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="M25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="N25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="O25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="P25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="R25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="S25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="T25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="U25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="V25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="W25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="X25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.62940184820141</v>
+        <v>29.62940184820144</v>
       </c>
     </row>
     <row r="26">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I32" t="n">
         <v>11.5051159259902</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="J34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="K34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="O34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="R34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="S34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.62940184820148</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="35">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I41" t="n">
         <v>11.5051159259902</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="J43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="K43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="O43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="R43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="S43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.62940184820144</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I44" t="n">
         <v>11.5051159259902</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="C46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="D46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="E46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="F46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="G46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="H46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="I46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="J46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="K46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="L46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="M46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="N46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="O46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="P46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="R46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="S46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="T46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="U46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="V46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="W46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="X46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.6294018482014</v>
+        <v>29.62940184820141</v>
       </c>
     </row>
   </sheetData>
@@ -31136,13 +31136,13 @@
         <v>152.4660575978702</v>
       </c>
       <c r="M3" t="n">
-        <v>147.3327073207309</v>
+        <v>156.0457117400143</v>
       </c>
       <c r="N3" t="n">
         <v>145.2533899013293</v>
       </c>
       <c r="O3" t="n">
-        <v>156.5079222624404</v>
+        <v>147.794917843157</v>
       </c>
       <c r="P3" t="n">
         <v>142.1253238409673</v>
@@ -31370,7 +31370,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
         <v>191.9290409491429</v>
@@ -31379,7 +31379,7 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O6" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P6" t="n">
         <v>163.0046057545602</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.868647820976752</v>
+        <v>4.868647820976753</v>
       </c>
       <c r="H11" t="n">
-        <v>49.86103949657817</v>
+        <v>49.86103949657819</v>
       </c>
       <c r="I11" t="n">
-        <v>187.6985451182064</v>
+        <v>187.6985451182065</v>
       </c>
       <c r="J11" t="n">
-        <v>413.220397995626</v>
+        <v>413.2203979956261</v>
       </c>
       <c r="K11" t="n">
-        <v>619.3102602575721</v>
+        <v>619.3102602575722</v>
       </c>
       <c r="L11" t="n">
-        <v>768.3091410087894</v>
+        <v>768.3091410087897</v>
       </c>
       <c r="M11" t="n">
-        <v>854.8919566950848</v>
+        <v>854.8919566950849</v>
       </c>
       <c r="N11" t="n">
-        <v>868.7250023164351</v>
+        <v>868.7250023164352</v>
       </c>
       <c r="O11" t="n">
-        <v>820.3123855465974</v>
+        <v>820.3123855465975</v>
       </c>
       <c r="P11" t="n">
-        <v>700.1176424662337</v>
+        <v>700.1176424662339</v>
       </c>
       <c r="Q11" t="n">
-        <v>525.7591923775036</v>
+        <v>525.7591923775037</v>
       </c>
       <c r="R11" t="n">
-        <v>305.8301986844312</v>
+        <v>305.8301986844313</v>
       </c>
       <c r="S11" t="n">
         <v>110.9443122205079</v>
       </c>
       <c r="T11" t="n">
-        <v>21.31250583632574</v>
+        <v>21.31250583632575</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3894918256781401</v>
+        <v>0.3894918256781402</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.604956237421667</v>
+        <v>2.604956237421668</v>
       </c>
       <c r="H12" t="n">
-        <v>25.15839313509873</v>
+        <v>25.15839313509874</v>
       </c>
       <c r="I12" t="n">
-        <v>89.68818624456179</v>
+        <v>89.68818624456181</v>
       </c>
       <c r="J12" t="n">
-        <v>246.1112382030708</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>420.6433061103224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>565.6068356735072</v>
+        <v>546.89786132514</v>
       </c>
       <c r="M12" t="n">
-        <v>660.0364992800424</v>
+        <v>660.0364992800426</v>
       </c>
       <c r="N12" t="n">
-        <v>677.5057014160852</v>
+        <v>677.5057014160853</v>
       </c>
       <c r="O12" t="n">
-        <v>182.9446146031947</v>
+        <v>619.7853553132157</v>
       </c>
       <c r="P12" t="n">
         <v>497.4323888809849</v>
@@ -31862,7 +31862,7 @@
         <v>332.5203786575448</v>
       </c>
       <c r="R12" t="n">
-        <v>161.7357916532506</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>48.3859195854419</v>
@@ -31914,7 +31914,7 @@
         <v>19.41692574209301</v>
       </c>
       <c r="I13" t="n">
-        <v>65.67606375750883</v>
+        <v>65.67606375750884</v>
       </c>
       <c r="J13" t="n">
         <v>154.4022816935145</v>
@@ -31926,13 +31926,13 @@
         <v>324.687529229232</v>
       </c>
       <c r="M13" t="n">
-        <v>342.3374750213798</v>
+        <v>342.3374750213799</v>
       </c>
       <c r="N13" t="n">
-        <v>334.1974550272511</v>
+        <v>334.1974550272512</v>
       </c>
       <c r="O13" t="n">
-        <v>308.6854411432126</v>
+        <v>308.6854411432127</v>
       </c>
       <c r="P13" t="n">
         <v>264.1337219558334</v>
@@ -31941,13 +31941,13 @@
         <v>182.8724979656632</v>
       </c>
       <c r="R13" t="n">
-        <v>98.19643631941913</v>
+        <v>98.19643631941916</v>
       </c>
       <c r="S13" t="n">
-        <v>38.05955689937858</v>
+        <v>38.05955689937859</v>
       </c>
       <c r="T13" t="n">
-        <v>9.331242432294177</v>
+        <v>9.331242432294179</v>
       </c>
       <c r="U13" t="n">
         <v>0.1191222438165216</v>
@@ -32078,7 +32078,7 @@
         <v>246.1112382030708</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L15" t="n">
         <v>565.6068356735072</v>
@@ -32087,19 +32087,19 @@
         <v>660.0364992800424</v>
       </c>
       <c r="N15" t="n">
-        <v>677.5057014160852</v>
+        <v>449.2598529668741</v>
       </c>
       <c r="O15" t="n">
-        <v>465.746481739158</v>
+        <v>619.7853553132156</v>
       </c>
       <c r="P15" t="n">
         <v>497.4323888809849</v>
       </c>
       <c r="Q15" t="n">
-        <v>332.5203786575448</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>161.7357916532506</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>48.3859195854419</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.868647820976755</v>
+        <v>4.868647820976752</v>
       </c>
       <c r="H17" t="n">
-        <v>49.8610394965782</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I17" t="n">
-        <v>187.6985451182065</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J17" t="n">
-        <v>413.2203979956262</v>
+        <v>413.220397995626</v>
       </c>
       <c r="K17" t="n">
-        <v>619.3102602575724</v>
+        <v>619.3102602575721</v>
       </c>
       <c r="L17" t="n">
-        <v>768.3091410087899</v>
+        <v>768.3091410087894</v>
       </c>
       <c r="M17" t="n">
-        <v>854.8919566950852</v>
+        <v>854.8919566950848</v>
       </c>
       <c r="N17" t="n">
-        <v>868.7250023164355</v>
+        <v>868.7250023164351</v>
       </c>
       <c r="O17" t="n">
-        <v>820.3123855465979</v>
+        <v>820.3123855465974</v>
       </c>
       <c r="P17" t="n">
-        <v>700.1176424662341</v>
+        <v>700.1176424662337</v>
       </c>
       <c r="Q17" t="n">
-        <v>525.759192377504</v>
+        <v>525.7591923775036</v>
       </c>
       <c r="R17" t="n">
-        <v>305.8301986844314</v>
+        <v>305.8301986844312</v>
       </c>
       <c r="S17" t="n">
         <v>110.9443122205079</v>
       </c>
       <c r="T17" t="n">
-        <v>21.31250583632576</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3894918256781403</v>
+        <v>0.3894918256781401</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.604956237421669</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H18" t="n">
-        <v>25.15839313509875</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I18" t="n">
-        <v>89.68818624456185</v>
+        <v>89.68818624456179</v>
       </c>
       <c r="J18" t="n">
-        <v>246.1112382030709</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>420.6433061103227</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>565.6068356735075</v>
+        <v>565.6068356735072</v>
       </c>
       <c r="M18" t="n">
-        <v>660.0364992800428</v>
+        <v>625.2712372423888</v>
       </c>
       <c r="N18" t="n">
-        <v>677.5057014160857</v>
+        <v>677.5057014160852</v>
       </c>
       <c r="O18" t="n">
-        <v>199.0009022924793</v>
+        <v>619.7853553132156</v>
       </c>
       <c r="P18" t="n">
-        <v>497.4323888809852</v>
+        <v>497.4323888809849</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.5203786575449</v>
+        <v>332.5203786575448</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>161.7357916532506</v>
       </c>
       <c r="S18" t="n">
-        <v>48.38591958544193</v>
+        <v>48.3859195854419</v>
       </c>
       <c r="T18" t="n">
-        <v>10.49980167627418</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U18" t="n">
-        <v>0.171378699830373</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.183907803302894</v>
+        <v>2.183907803302893</v>
       </c>
       <c r="H19" t="n">
-        <v>19.41692574209302</v>
+        <v>19.41692574209301</v>
       </c>
       <c r="I19" t="n">
-        <v>65.67606375750887</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J19" t="n">
-        <v>154.4022816935146</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K19" t="n">
-        <v>253.7303793291907</v>
+        <v>253.7303793291906</v>
       </c>
       <c r="L19" t="n">
-        <v>324.6875292292322</v>
+        <v>324.687529229232</v>
       </c>
       <c r="M19" t="n">
-        <v>342.33747502138</v>
+        <v>342.3374750213798</v>
       </c>
       <c r="N19" t="n">
-        <v>334.1974550272513</v>
+        <v>334.1974550272511</v>
       </c>
       <c r="O19" t="n">
-        <v>308.6854411432128</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P19" t="n">
-        <v>264.1337219558336</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q19" t="n">
-        <v>182.8724979656633</v>
+        <v>182.8724979656632</v>
       </c>
       <c r="R19" t="n">
-        <v>98.19643631941919</v>
+        <v>98.19643631941913</v>
       </c>
       <c r="S19" t="n">
-        <v>38.05955689937861</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T19" t="n">
-        <v>9.331242432294182</v>
+        <v>9.331242432294177</v>
       </c>
       <c r="U19" t="n">
         <v>0.1191222438165216</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.868647820976753</v>
+        <v>4.868647820976752</v>
       </c>
       <c r="H20" t="n">
-        <v>49.86103949657819</v>
+        <v>49.86103949657817</v>
       </c>
       <c r="I20" t="n">
-        <v>187.6985451182065</v>
+        <v>187.6985451182064</v>
       </c>
       <c r="J20" t="n">
-        <v>413.2203979956261</v>
+        <v>413.220397995626</v>
       </c>
       <c r="K20" t="n">
-        <v>619.3102602575723</v>
+        <v>619.3102602575721</v>
       </c>
       <c r="L20" t="n">
-        <v>768.3091410087898</v>
+        <v>768.3091410087894</v>
       </c>
       <c r="M20" t="n">
-        <v>854.891956695085</v>
+        <v>854.8919566950848</v>
       </c>
       <c r="N20" t="n">
-        <v>868.7250023164353</v>
+        <v>868.7250023164351</v>
       </c>
       <c r="O20" t="n">
-        <v>820.3123855465976</v>
+        <v>820.3123855465974</v>
       </c>
       <c r="P20" t="n">
-        <v>700.117642466234</v>
+        <v>700.1176424662337</v>
       </c>
       <c r="Q20" t="n">
-        <v>525.7591923775038</v>
+        <v>525.7591923775036</v>
       </c>
       <c r="R20" t="n">
-        <v>305.8301986844313</v>
+        <v>305.8301986844312</v>
       </c>
       <c r="S20" t="n">
         <v>110.9443122205079</v>
       </c>
       <c r="T20" t="n">
-        <v>21.31250583632575</v>
+        <v>21.31250583632574</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3894918256781402</v>
+        <v>0.3894918256781401</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.604956237421668</v>
+        <v>2.604956237421667</v>
       </c>
       <c r="H21" t="n">
-        <v>25.15839313509874</v>
+        <v>25.15839313509873</v>
       </c>
       <c r="I21" t="n">
-        <v>89.68818624456183</v>
+        <v>89.68818624456179</v>
       </c>
       <c r="J21" t="n">
-        <v>246.1112382030709</v>
+        <v>246.1112382030708</v>
       </c>
       <c r="K21" t="n">
-        <v>420.6433061103226</v>
+        <v>420.6433061103224</v>
       </c>
       <c r="L21" t="n">
-        <v>565.6068356735074</v>
+        <v>565.6068356735072</v>
       </c>
       <c r="M21" t="n">
-        <v>660.0364992800427</v>
+        <v>660.0364992800424</v>
       </c>
       <c r="N21" t="n">
-        <v>677.5057014160856</v>
+        <v>677.5057014160852</v>
       </c>
       <c r="O21" t="n">
-        <v>182.9446146031935</v>
+        <v>619.7853553132156</v>
       </c>
       <c r="P21" t="n">
-        <v>497.4323888809851</v>
+        <v>269.1865404317741</v>
       </c>
       <c r="Q21" t="n">
-        <v>332.5203786575449</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>161.7357916532507</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>48.38591958544192</v>
+        <v>48.3859195854419</v>
       </c>
       <c r="T21" t="n">
-        <v>10.49980167627418</v>
+        <v>10.49980167627417</v>
       </c>
       <c r="U21" t="n">
-        <v>0.171378699830373</v>
+        <v>0.1713786998303729</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.183907803302894</v>
+        <v>2.183907803302893</v>
       </c>
       <c r="H22" t="n">
         <v>19.41692574209301</v>
       </c>
       <c r="I22" t="n">
-        <v>65.67606375750886</v>
+        <v>65.67606375750883</v>
       </c>
       <c r="J22" t="n">
-        <v>154.4022816935146</v>
+        <v>154.4022816935145</v>
       </c>
       <c r="K22" t="n">
-        <v>253.7303793291907</v>
+        <v>253.7303793291906</v>
       </c>
       <c r="L22" t="n">
-        <v>324.6875292292321</v>
+        <v>324.687529229232</v>
       </c>
       <c r="M22" t="n">
-        <v>342.3374750213799</v>
+        <v>342.3374750213798</v>
       </c>
       <c r="N22" t="n">
-        <v>334.1974550272512</v>
+        <v>334.1974550272511</v>
       </c>
       <c r="O22" t="n">
-        <v>308.6854411432128</v>
+        <v>308.6854411432126</v>
       </c>
       <c r="P22" t="n">
-        <v>264.1337219558335</v>
+        <v>264.1337219558334</v>
       </c>
       <c r="Q22" t="n">
         <v>182.8724979656632</v>
       </c>
       <c r="R22" t="n">
-        <v>98.19643631941918</v>
+        <v>98.19643631941913</v>
       </c>
       <c r="S22" t="n">
-        <v>38.0595568993786</v>
+        <v>38.05955689937858</v>
       </c>
       <c r="T22" t="n">
-        <v>9.33124243229418</v>
+        <v>9.331242432294177</v>
       </c>
       <c r="U22" t="n">
         <v>0.1191222438165216</v>
@@ -32786,13 +32786,13 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J24" t="n">
-        <v>260.8914386470659</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>445.9050228248003</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M24" t="n">
         <v>699.6749645160852</v>
@@ -32804,7 +32804,7 @@
         <v>657.0065397283032</v>
       </c>
       <c r="P24" t="n">
-        <v>315.3263032623338</v>
+        <v>296.4237475874539</v>
       </c>
       <c r="Q24" t="n">
         <v>352.4898765323896</v>
@@ -33029,25 +33029,25 @@
         <v>445.9050228248003</v>
       </c>
       <c r="L27" t="n">
-        <v>458.3466186770775</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>699.6749645160852</v>
       </c>
       <c r="N27" t="n">
-        <v>718.1932788789916</v>
+        <v>651.0333256676424</v>
       </c>
       <c r="O27" t="n">
         <v>657.0065397283032</v>
       </c>
       <c r="P27" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.2917340267547</v>
@@ -33263,7 +33263,7 @@
         <v>260.8914386470659</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L30" t="n">
         <v>599.5743312855947</v>
@@ -33272,19 +33272,19 @@
         <v>699.6749645160852</v>
       </c>
       <c r="N30" t="n">
-        <v>718.1932788789916</v>
+        <v>651.0333256676424</v>
       </c>
       <c r="O30" t="n">
-        <v>266.3014803761602</v>
+        <v>657.0065397283032</v>
       </c>
       <c r="P30" t="n">
-        <v>527.305670851676</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.2917340267547</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>367.9794672158572</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>342.9230839138511</v>
       </c>
       <c r="M33" t="n">
         <v>699.6749645160852</v>
@@ -33521,7 +33521,7 @@
         <v>352.4898765323896</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>171.4488280714853</v>
       </c>
       <c r="S33" t="n">
         <v>51.2917340267547</v>
@@ -33743,22 +33743,22 @@
         <v>599.5743312855947</v>
       </c>
       <c r="M36" t="n">
-        <v>587.7578881091594</v>
+        <v>699.6749645160852</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>718.1932788789916</v>
       </c>
       <c r="O36" t="n">
-        <v>657.0065397283032</v>
+        <v>196.515323079608</v>
       </c>
       <c r="P36" t="n">
         <v>527.305670851676</v>
       </c>
       <c r="Q36" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.2917340267547</v>
@@ -33971,13 +33971,13 @@
         <v>95.07440663755013</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>260.8914386470659</v>
       </c>
       <c r="K39" t="n">
-        <v>342.210143108336</v>
+        <v>445.9050228248003</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>599.5743312855947</v>
       </c>
       <c r="M39" t="n">
         <v>699.6749645160852</v>
@@ -33986,16 +33986,16 @@
         <v>718.1932788789916</v>
       </c>
       <c r="O39" t="n">
-        <v>657.0065397283032</v>
+        <v>196.515323079608</v>
       </c>
       <c r="P39" t="n">
         <v>527.305670851676</v>
       </c>
       <c r="Q39" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.2917340267547</v>
@@ -34217,22 +34217,22 @@
         <v>599.5743312855947</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>699.6749645160852</v>
       </c>
       <c r="N42" t="n">
         <v>718.1932788789916</v>
       </c>
       <c r="O42" t="n">
-        <v>657.0065397283032</v>
+        <v>196.515323079608</v>
       </c>
       <c r="P42" t="n">
-        <v>386.0779582431591</v>
+        <v>527.305670851676</v>
       </c>
       <c r="Q42" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.2917340267547</v>
@@ -34372,7 +34372,7 @@
         <v>656.5029128583319</v>
       </c>
       <c r="L44" t="n">
-        <v>814.4499153593467</v>
+        <v>814.4499153593446</v>
       </c>
       <c r="M44" t="n">
         <v>906.2324585355036</v>
@@ -34454,22 +34454,22 @@
         <v>599.5743312855947</v>
       </c>
       <c r="M45" t="n">
-        <v>394.2375847508468</v>
+        <v>699.6749645160852</v>
       </c>
       <c r="N45" t="n">
         <v>718.1932788789916</v>
       </c>
       <c r="O45" t="n">
-        <v>657.0065397283032</v>
+        <v>196.515323079608</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>527.305670851676</v>
       </c>
       <c r="Q45" t="n">
-        <v>352.4898765323896</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4488280714853</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.2917340267547</v>
@@ -34784,13 +34784,13 @@
         <v>13.91167781799599</v>
       </c>
       <c r="M3" t="n">
-        <v>5.198673398712605</v>
+        <v>13.91167781799599</v>
       </c>
       <c r="N3" t="n">
         <v>13.91167781799599</v>
       </c>
       <c r="O3" t="n">
-        <v>13.91167781799599</v>
+        <v>5.198673398712605</v>
       </c>
       <c r="P3" t="n">
         <v>8.150916426637082</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
         <v>49.79500702712463</v>
@@ -35027,7 +35027,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O6" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P6" t="n">
         <v>29.03019834022993</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.1744934689397</v>
+        <v>232.1744934689398</v>
       </c>
       <c r="K11" t="n">
-        <v>399.2204092125915</v>
+        <v>399.2204092125916</v>
       </c>
       <c r="L11" t="n">
-        <v>532.5427260388021</v>
+        <v>532.5427260388024</v>
       </c>
       <c r="M11" t="n">
-        <v>624.5457234678121</v>
+        <v>624.5457234678122</v>
       </c>
       <c r="N11" t="n">
         <v>639.3119387198442</v>
       </c>
       <c r="O11" t="n">
-        <v>590.2141741249106</v>
+        <v>590.2141741249108</v>
       </c>
       <c r="P11" t="n">
-        <v>468.8846467109642</v>
+        <v>468.8846467109643</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.4535025030541</v>
+        <v>303.4535025030542</v>
       </c>
       <c r="R11" t="n">
-        <v>90.24466087029907</v>
+        <v>90.24466087029913</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.2736115364041</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>282.8018671359634</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>427.0524558936331</v>
+        <v>408.3434815452658</v>
       </c>
       <c r="M12" t="n">
-        <v>517.9024653580241</v>
+        <v>517.9024653580243</v>
       </c>
       <c r="N12" t="n">
-        <v>546.163989332752</v>
+        <v>546.1639893327521</v>
       </c>
       <c r="O12" t="n">
-        <v>40.34837015875024</v>
+        <v>477.1891108687713</v>
       </c>
       <c r="P12" t="n">
-        <v>363.4579814666546</v>
+        <v>363.4579814666547</v>
       </c>
       <c r="Q12" t="n">
         <v>192.5386045715233</v>
       </c>
       <c r="R12" t="n">
-        <v>16.05628768928662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.04310157684174</v>
+        <v>61.04310157684176</v>
       </c>
       <c r="K13" t="n">
-        <v>231.4608875033077</v>
+        <v>231.4608875033078</v>
       </c>
       <c r="L13" t="n">
         <v>352.2775544895482</v>
       </c>
       <c r="M13" t="n">
-        <v>381.9213519832204</v>
+        <v>381.9213519832205</v>
       </c>
       <c r="N13" t="n">
         <v>378.3296274064797</v>
       </c>
       <c r="O13" t="n">
-        <v>333.2705690572523</v>
+        <v>333.2705690572524</v>
       </c>
       <c r="P13" t="n">
         <v>261.4122812207269</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.71045471396879</v>
+        <v>96.71045471396882</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>119.2736115364041</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L15" t="n">
         <v>427.0524558936331</v>
@@ -35735,19 +35735,19 @@
         <v>517.9024653580241</v>
       </c>
       <c r="N15" t="n">
-        <v>546.163989332752</v>
+        <v>317.9181408835407</v>
       </c>
       <c r="O15" t="n">
-        <v>323.1502372947135</v>
+        <v>477.1891108687712</v>
       </c>
       <c r="P15" t="n">
         <v>363.4579814666546</v>
       </c>
       <c r="Q15" t="n">
-        <v>192.5386045715233</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>16.05628768928662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>232.1744934689399</v>
+        <v>232.1744934689397</v>
       </c>
       <c r="K17" t="n">
-        <v>399.2204092125918</v>
+        <v>399.2204092125915</v>
       </c>
       <c r="L17" t="n">
-        <v>532.5427260388026</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M17" t="n">
-        <v>624.5457234678125</v>
+        <v>624.5457234678121</v>
       </c>
       <c r="N17" t="n">
-        <v>639.3119387198446</v>
+        <v>639.3119387198442</v>
       </c>
       <c r="O17" t="n">
-        <v>590.2141741249111</v>
+        <v>590.2141741249106</v>
       </c>
       <c r="P17" t="n">
-        <v>468.8846467109645</v>
+        <v>468.8846467109642</v>
       </c>
       <c r="Q17" t="n">
-        <v>303.4535025030544</v>
+        <v>303.4535025030541</v>
       </c>
       <c r="R17" t="n">
-        <v>90.24466087029924</v>
+        <v>90.24466087029907</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2736115364042</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>282.8018671359637</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>427.0524558936333</v>
+        <v>427.0524558936331</v>
       </c>
       <c r="M18" t="n">
-        <v>517.9024653580245</v>
+        <v>483.1372033203705</v>
       </c>
       <c r="N18" t="n">
-        <v>546.1639893327524</v>
+        <v>546.163989332752</v>
       </c>
       <c r="O18" t="n">
-        <v>56.40465784803488</v>
+        <v>477.1891108687712</v>
       </c>
       <c r="P18" t="n">
-        <v>363.4579814666549</v>
+        <v>363.4579814666546</v>
       </c>
       <c r="Q18" t="n">
-        <v>192.5386045715234</v>
+        <v>192.5386045715233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>16.05628768928662</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,13 +36045,13 @@
         <v>261.0902893515092</v>
       </c>
       <c r="L19" t="n">
-        <v>381.9069563377496</v>
+        <v>381.9069563377495</v>
       </c>
       <c r="M19" t="n">
-        <v>411.5507538314219</v>
+        <v>411.5507538314218</v>
       </c>
       <c r="N19" t="n">
-        <v>407.9590292546812</v>
+        <v>407.9590292546811</v>
       </c>
       <c r="O19" t="n">
         <v>362.8999709054538</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>232.1744934689398</v>
+        <v>232.1744934689397</v>
       </c>
       <c r="K20" t="n">
-        <v>399.2204092125917</v>
+        <v>399.2204092125915</v>
       </c>
       <c r="L20" t="n">
-        <v>532.5427260388026</v>
+        <v>532.5427260388021</v>
       </c>
       <c r="M20" t="n">
-        <v>624.5457234678123</v>
+        <v>624.5457234678121</v>
       </c>
       <c r="N20" t="n">
-        <v>639.3119387198444</v>
+        <v>639.3119387198442</v>
       </c>
       <c r="O20" t="n">
-        <v>590.2141741249109</v>
+        <v>590.2141741249106</v>
       </c>
       <c r="P20" t="n">
-        <v>468.8846467109644</v>
+        <v>468.8846467109642</v>
       </c>
       <c r="Q20" t="n">
-        <v>303.4535025030543</v>
+        <v>303.4535025030541</v>
       </c>
       <c r="R20" t="n">
-        <v>90.24466087029919</v>
+        <v>90.24466087029907</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.2736115364042</v>
+        <v>119.2736115364041</v>
       </c>
       <c r="K21" t="n">
-        <v>282.8018671359636</v>
+        <v>282.8018671359634</v>
       </c>
       <c r="L21" t="n">
-        <v>427.0524558936332</v>
+        <v>427.0524558936331</v>
       </c>
       <c r="M21" t="n">
-        <v>517.9024653580243</v>
+        <v>517.9024653580241</v>
       </c>
       <c r="N21" t="n">
-        <v>546.1639893327523</v>
+        <v>546.163989332752</v>
       </c>
       <c r="O21" t="n">
-        <v>40.34837015874909</v>
+        <v>477.1891108687712</v>
       </c>
       <c r="P21" t="n">
-        <v>363.4579814666548</v>
+        <v>135.2121330174439</v>
       </c>
       <c r="Q21" t="n">
-        <v>192.5386045715234</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>16.05628768928671</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.6725034250432</v>
+        <v>90.67250342504317</v>
       </c>
       <c r="K22" t="n">
         <v>261.0902893515092</v>
       </c>
       <c r="L22" t="n">
-        <v>381.9069563377496</v>
+        <v>381.9069563377495</v>
       </c>
       <c r="M22" t="n">
-        <v>411.5507538314219</v>
+        <v>411.5507538314218</v>
       </c>
       <c r="N22" t="n">
-        <v>407.9590292546812</v>
+        <v>407.9590292546811</v>
       </c>
       <c r="O22" t="n">
         <v>362.8999709054538</v>
@@ -36297,7 +36297,7 @@
         <v>291.0416830689284</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.3398565621703</v>
+        <v>126.3398565621702</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>134.0538119803992</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>308.0635838504413</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M24" t="n">
         <v>557.5409305940668</v>
@@ -36452,7 +36452,7 @@
         <v>514.4102952838588</v>
       </c>
       <c r="P24" t="n">
-        <v>181.3518958480036</v>
+        <v>162.4493401731237</v>
       </c>
       <c r="Q24" t="n">
         <v>212.5081024463681</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>99.94512619961691</v>
+        <v>99.94512619961694</v>
       </c>
       <c r="K25" t="n">
-        <v>276.3280570072957</v>
+        <v>276.3280570072958</v>
       </c>
       <c r="L25" t="n">
         <v>401.4060527573688</v>
       </c>
       <c r="M25" t="n">
-        <v>432.1098170308528</v>
+        <v>432.1098170308529</v>
       </c>
       <c r="N25" t="n">
         <v>428.0292438829954</v>
@@ -36531,7 +36531,7 @@
         <v>381.4380625730727</v>
       </c>
       <c r="P25" t="n">
-        <v>306.9042230448739</v>
+        <v>306.904223044874</v>
       </c>
       <c r="Q25" t="n">
         <v>137.3222570220646</v>
@@ -36677,25 +36677,25 @@
         <v>308.0635838504413</v>
       </c>
       <c r="L27" t="n">
-        <v>319.7922388972033</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>557.5409305940668</v>
       </c>
       <c r="N27" t="n">
-        <v>586.8515667956583</v>
+        <v>519.6916135843092</v>
       </c>
       <c r="O27" t="n">
         <v>514.4102952838588</v>
       </c>
       <c r="P27" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,10 +36756,10 @@
         <v>276.3280570072957</v>
       </c>
       <c r="L28" t="n">
-        <v>401.4060527573688</v>
+        <v>401.4060527573689</v>
       </c>
       <c r="M28" t="n">
-        <v>432.1098170308528</v>
+        <v>432.1098170308529</v>
       </c>
       <c r="N28" t="n">
         <v>428.0292438829954</v>
@@ -36768,7 +36768,7 @@
         <v>381.4380625730727</v>
       </c>
       <c r="P28" t="n">
-        <v>306.9042230448739</v>
+        <v>306.904223044874</v>
       </c>
       <c r="Q28" t="n">
         <v>137.3222570220646</v>
@@ -36911,7 +36911,7 @@
         <v>134.0538119803992</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L30" t="n">
         <v>461.0199515057205</v>
@@ -36920,19 +36920,19 @@
         <v>557.5409305940668</v>
       </c>
       <c r="N30" t="n">
-        <v>586.8515667956583</v>
+        <v>519.6916135843092</v>
       </c>
       <c r="O30" t="n">
-        <v>123.7052359317158</v>
+        <v>514.4102952838588</v>
       </c>
       <c r="P30" t="n">
-        <v>393.3312634373458</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>230.1380282414982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>204.3687041339769</v>
       </c>
       <c r="M33" t="n">
         <v>557.5409305940668</v>
@@ -37169,7 +37169,7 @@
         <v>212.5081024463681</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.76932410752138</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>99.94512619961698</v>
+        <v>99.94512619961691</v>
       </c>
       <c r="K34" t="n">
-        <v>276.3280570072958</v>
+        <v>276.3280570072957</v>
       </c>
       <c r="L34" t="n">
         <v>401.4060527573689</v>
@@ -37236,16 +37236,16 @@
         <v>432.1098170308529</v>
       </c>
       <c r="N34" t="n">
-        <v>428.0292438829955</v>
+        <v>428.0292438829954</v>
       </c>
       <c r="O34" t="n">
-        <v>381.4380625730728</v>
+        <v>381.4380625730727</v>
       </c>
       <c r="P34" t="n">
         <v>306.904223044874</v>
       </c>
       <c r="Q34" t="n">
-        <v>137.3222570220647</v>
+        <v>137.3222570220646</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>461.0199515057205</v>
       </c>
       <c r="M36" t="n">
-        <v>445.623854187141</v>
+        <v>557.5409305940668</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>586.8515667956583</v>
       </c>
       <c r="O36" t="n">
-        <v>514.4102952838588</v>
+        <v>53.91907863516354</v>
       </c>
       <c r="P36" t="n">
         <v>393.3312634373458</v>
       </c>
       <c r="Q36" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.0538119803992</v>
       </c>
       <c r="K39" t="n">
-        <v>204.3687041339769</v>
+        <v>308.0635838504413</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.0199515057205</v>
       </c>
       <c r="M39" t="n">
         <v>557.5409305940668</v>
@@ -37634,16 +37634,16 @@
         <v>586.8515667956583</v>
       </c>
       <c r="O39" t="n">
-        <v>514.4102952838588</v>
+        <v>53.91907863516354</v>
       </c>
       <c r="P39" t="n">
         <v>393.3312634373458</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>461.0199515057205</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>557.5409305940668</v>
       </c>
       <c r="N42" t="n">
         <v>586.8515667956583</v>
       </c>
       <c r="O42" t="n">
-        <v>514.4102952838588</v>
+        <v>53.91907863516354</v>
       </c>
       <c r="P42" t="n">
-        <v>252.1035508288288</v>
+        <v>393.3312634373458</v>
       </c>
       <c r="Q42" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>99.94512619961694</v>
+        <v>99.94512619961691</v>
       </c>
       <c r="K43" t="n">
-        <v>276.3280570072958</v>
+        <v>276.3280570072957</v>
       </c>
       <c r="L43" t="n">
         <v>401.4060527573689</v>
@@ -38020,7 +38020,7 @@
         <v>436.4130618133514</v>
       </c>
       <c r="L44" t="n">
-        <v>578.6835003893596</v>
+        <v>578.6835003893573</v>
       </c>
       <c r="M44" t="n">
         <v>675.8862253082309</v>
@@ -38102,22 +38102,22 @@
         <v>461.0199515057205</v>
       </c>
       <c r="M45" t="n">
-        <v>252.1035508288285</v>
+        <v>557.5409305940668</v>
       </c>
       <c r="N45" t="n">
         <v>586.8515667956583</v>
       </c>
       <c r="O45" t="n">
-        <v>514.4102952838588</v>
+        <v>53.91907863516354</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>393.3312634373458</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.5081024463681</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.76932410752138</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,10 +38178,10 @@
         <v>276.3280570072957</v>
       </c>
       <c r="L46" t="n">
-        <v>401.4060527573688</v>
+        <v>401.4060527573689</v>
       </c>
       <c r="M46" t="n">
-        <v>432.1098170308528</v>
+        <v>432.1098170308529</v>
       </c>
       <c r="N46" t="n">
         <v>428.0292438829954</v>
@@ -38190,7 +38190,7 @@
         <v>381.4380625730727</v>
       </c>
       <c r="P46" t="n">
-        <v>306.9042230448739</v>
+        <v>306.904223044874</v>
       </c>
       <c r="Q46" t="n">
         <v>137.3222570220646</v>
